--- a/Doo-Doc/Nueva Version Victus/Modelo de dominio anémico de contextos-VictusResidencias.xlsx
+++ b/Doo-Doc/Nueva Version Victus/Modelo de dominio anémico de contextos-VictusResidencias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\trabajoDOO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1789F93D-7989-4E21-B117-A4C3AE034A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C7ADEF-25B3-46F3-A8C5-B1005FE667E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="8" xr2:uid="{082AFB46-52C9-4E4C-AE4E-19443AA1B53B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{082AFB46-52C9-4E4C-AE4E-19443AA1B53B}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="3" r:id="rId1"/>
@@ -950,6 +950,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1055,6 +1061,21 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1079,22 +1100,16 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1107,21 +1122,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1148,22 +1148,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>210536</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>10191</xdr:rowOff>
+      <xdr:colOff>343894</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>29284</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4778A2CC-7D37-F19E-94A2-B72B66404A32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA9D2E82-FF5A-357B-B457-4B26C11893C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1172,65 +1172,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="190500"/>
-          <a:ext cx="7068536" cy="4772691"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>210536</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>48350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BEF9D12-7A66-D739-A433-A4114727C5D6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="190500"/>
-          <a:ext cx="7068536" cy="5191850"/>
+          <a:off x="76200" y="95250"/>
+          <a:ext cx="7125694" cy="5077534"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1593,20 +1543,20 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.44140625" style="2"/>
+    <col min="2" max="2" width="79.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="48"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="50"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -1614,7 +1564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -1622,7 +1572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
@@ -1630,13 +1580,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
         <v>16</v>
       </c>
@@ -1644,7 +1594,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="s">
         <v>17</v>
       </c>
@@ -1652,7 +1602,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
         <v>18</v>
       </c>
@@ -1660,7 +1610,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
         <v>19</v>
       </c>
@@ -1668,7 +1618,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
         <v>20</v>
       </c>
@@ -1676,7 +1626,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
         <v>21</v>
       </c>
@@ -1684,7 +1634,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
         <v>22</v>
       </c>
@@ -1708,109 +1658,109 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" style="13" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="58" style="30" customWidth="1"/>
-    <col min="19" max="19" width="17.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.44140625" style="13"/>
+    <col min="19" max="19" width="17.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="96">
+      <c r="B1" s="101">
         <f>'[1]Configuración Apuestas'!D10</f>
         <v>0</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="97"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="77" t="s">
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="102"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="79"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="81"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="86" t="s">
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="88" t="s">
+      <c r="S3" s="95" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>29</v>
       </c>
@@ -1862,10 +1812,10 @@
       <c r="Q4" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="R4" s="98"/>
-      <c r="S4" s="99"/>
-    </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R4" s="103"/>
+      <c r="S4" s="104"/>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26"/>
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
@@ -1904,10 +1854,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1922,43 +1872,43 @@
       <selection activeCell="B5" sqref="B5:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="22.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.6640625" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="2"/>
+    <col min="1" max="1" width="36.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.7109375" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="59"/>
-    </row>
-    <row r="2" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="60"/>
+      <c r="D1" s="61"/>
+    </row>
+    <row r="2" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="63" t="s">
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="65"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1972,127 +1922,127 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="68" t="s">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="71" t="s">
         <v>66</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="72" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="68"/>
-      <c r="B6" s="69"/>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="70"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="70"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68"/>
-      <c r="B7" s="69"/>
+      <c r="D6" s="72"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="70"/>
+      <c r="B7" s="71"/>
       <c r="C7" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="70"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="68"/>
-      <c r="B8" s="69"/>
+      <c r="D7" s="72"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="70"/>
+      <c r="B8" s="71"/>
       <c r="C8" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="70"/>
-    </row>
-    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="68"/>
-      <c r="B9" s="69"/>
+      <c r="D8" s="72"/>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="70"/>
+      <c r="B9" s="71"/>
       <c r="C9" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="70"/>
-    </row>
-    <row r="10" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="68"/>
-      <c r="B10" s="69"/>
+      <c r="D9" s="72"/>
+    </row>
+    <row r="10" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="70"/>
+      <c r="B10" s="71"/>
       <c r="C10" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="70"/>
-    </row>
-    <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="66" t="s">
+      <c r="D10" s="72"/>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="69" t="s">
         <v>67</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="68" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="66"/>
-      <c r="B12" s="67"/>
+    <row r="12" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="68"/>
+      <c r="B12" s="69"/>
       <c r="C12" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="66"/>
-    </row>
-    <row r="13" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="66"/>
-      <c r="B13" s="67"/>
+      <c r="D12" s="68"/>
+    </row>
+    <row r="13" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="68"/>
+      <c r="B13" s="69"/>
       <c r="C13" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="66"/>
-    </row>
-    <row r="14" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="49" t="s">
+      <c r="D13" s="68"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="54" t="s">
         <v>65</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="57" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="50"/>
-      <c r="B15" s="53"/>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="52"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="56"/>
-    </row>
-    <row r="16" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="50"/>
-      <c r="B16" s="53"/>
+      <c r="D15" s="58"/>
+    </row>
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="52"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="56"/>
-    </row>
-    <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="51"/>
-      <c r="B17" s="54"/>
+      <c r="D16" s="58"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="53"/>
+      <c r="B17" s="56"/>
       <c r="C17" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="57"/>
+      <c r="D17" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2148,112 +2098,112 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="38.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="38.28515625" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="64" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.44140625" style="13"/>
+    <col min="7" max="16384" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="71" t="str">
+      <c r="B1" s="73" t="str">
         <f>Contextos!B5</f>
         <v xml:space="preserve"> Gestión de Conjuntos residenciales</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="72"/>
-    </row>
-    <row r="2" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="74"/>
+    </row>
+    <row r="2" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="73" t="str">
+      <c r="B2" s="75" t="str">
         <f>Contextos!D5</f>
         <v>Contexto cuya motivación es Gestionar la estructura física y los recursos disponibles en cada conjunto residencial. Aquí se manejan los datos sobre qué conjuntos existen, dónde están ubicados, qué recursos ofrecen según una Agenda con respectivos turnos para cada zona.</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="75" t="str">
+      <c r="B3" s="77" t="str">
         <f>Contextos!A5</f>
         <v>Core/Básico</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="77" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="79"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="81"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="80" t="s">
+      <c r="D5" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="80"/>
-      <c r="F5" s="81" t="s">
+      <c r="E5" s="82"/>
+      <c r="F5" s="83" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="81"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="83"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="80"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="81"/>
-    </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F7" s="83"/>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>41</v>
       </c>
@@ -2275,7 +2225,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>23</v>
       </c>
@@ -2297,7 +2247,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>68</v>
       </c>
@@ -2319,7 +2269,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>41</v>
       </c>
@@ -2341,7 +2291,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>70</v>
       </c>
@@ -2363,7 +2313,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>23</v>
       </c>
@@ -2415,117 +2365,117 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D386A343-6D12-4FEA-AEEF-63E15D63FE79}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="64" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.44140625" style="13"/>
+    <col min="7" max="16384" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="71" t="str">
+      <c r="B1" s="73" t="str">
         <f>Contextos!B11</f>
         <v>Gestión de Residentes</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="72"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="74"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="73" t="str">
+      <c r="B2" s="75" t="str">
         <f>Contextos!D11</f>
         <v>Contexto cuya motivación es encargarce de manejar la información de los residentes, incluidas sus identificaciones, contacto, y la relación entre el residente y su residencia dentro del conjunto.</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="75" t="str">
+      <c r="B3" s="77" t="str">
         <f>Contextos!A11</f>
         <v>Core/Básico</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="77" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="79"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="81"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="80" t="s">
+      <c r="D5" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="80"/>
-      <c r="F5" s="81" t="s">
+      <c r="E5" s="82"/>
+      <c r="F5" s="83" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="81"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="83"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="80"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="81"/>
-    </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F7" s="83"/>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>63</v>
       </c>
@@ -2547,7 +2497,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>25</v>
       </c>
@@ -2603,113 +2553,113 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="64" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.44140625" style="13"/>
+    <col min="7" max="16384" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="71" t="str">
+      <c r="B1" s="73" t="str">
         <f>Contextos!B14</f>
         <v>Reservas</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="72"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="74"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="73" t="str">
+      <c r="B2" s="75" t="str">
         <f>Contextos!D14</f>
         <v>Contexto cuya intención enfocarse en la gestión del proceso de reservas de los recursos, incluyendo la disponibilidad de los recursos y las reservas que los residentes realizan.</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="75" t="str">
+      <c r="B3" s="77" t="str">
         <f>Contextos!A14</f>
         <v>Core/Básico</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="77" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="79"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="81"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="80" t="s">
+      <c r="D5" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="80"/>
-      <c r="F5" s="81" t="s">
+      <c r="E5" s="82"/>
+      <c r="F5" s="83" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="81"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="83"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="80"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="81"/>
-    </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F7" s="83"/>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>42</v>
       </c>
@@ -2731,7 +2681,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>69</v>
       </c>
@@ -2753,7 +2703,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>25</v>
       </c>
@@ -2809,107 +2759,107 @@
       <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" style="13" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="58" style="30" customWidth="1"/>
-    <col min="19" max="19" width="17.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.44140625" style="13"/>
+    <col min="19" max="19" width="17.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="82" t="str">
+      <c r="B1" s="89" t="str">
         <f>Reservas!D8</f>
         <v>Reserva-0001</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="83"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="77"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="79"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="90"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="81"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="86" t="s">
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="88" t="s">
+      <c r="S3" s="95" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
         <v>29</v>
       </c>
@@ -2961,14 +2911,14 @@
       <c r="Q4" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="R4" s="87"/>
-      <c r="S4" s="89"/>
-    </row>
-    <row r="5" spans="1:19" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="90" t="s">
+      <c r="R4" s="94"/>
+      <c r="S4" s="96"/>
+    </row>
+    <row r="5" spans="1:19" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="85" t="s">
         <v>63</v>
       </c>
       <c r="C5" s="36" t="s">
@@ -3009,14 +2959,14 @@
         <f>_xlfn.CONCAT("Atributo que contiene la informacion del identificador de un ",B5,"  en el contexto de ",A5,".")</f>
         <v>Atributo que contiene la informacion del identificador de un ConjuntoResidencial  en el contexto de Gestión de Conjuntos residenciales.</v>
       </c>
-      <c r="S5" s="93" t="str">
+      <c r="S5" s="87" t="str">
         <f>B7</f>
         <v>ZonaComun</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="58.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="90"/>
-      <c r="B6" s="91"/>
+    <row r="6" spans="1:19" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="84"/>
+      <c r="B6" s="85"/>
       <c r="C6" s="36" t="s">
         <v>59</v>
       </c>
@@ -3055,11 +3005,11 @@
         <f>_xlfn.CONCAT("Atributo que contiene la información del nombre de un ",B5," en el contexto de ",A5," asociado al residente con el identificador' ",J6,"'.")</f>
         <v>Atributo que contiene la información del nombre de un ConjuntoResidencial en el contexto de Gestión de Conjuntos residenciales asociado al residente con el identificador' nombreConjuntoResidencial'.</v>
       </c>
-      <c r="S6" s="94"/>
-    </row>
-    <row r="7" spans="1:19" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="90"/>
-      <c r="B7" s="92" t="s">
+      <c r="S6" s="88"/>
+    </row>
+    <row r="7" spans="1:19" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="84"/>
+      <c r="B7" s="86" t="s">
         <v>42</v>
       </c>
       <c r="C7" s="38" t="s">
@@ -3100,11 +3050,11 @@
         <f>_xlfn.CONCAT("Atributo que contiene la informacion del identificador de un ",B7,"  en el contexto de ",A5,".")</f>
         <v>Atributo que contiene la informacion del identificador de un ZonaComun  en el contexto de Gestión de Conjuntos residenciales.</v>
       </c>
-      <c r="S7" s="94"/>
-    </row>
-    <row r="8" spans="1:19" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="90"/>
-      <c r="B8" s="92"/>
+      <c r="S7" s="88"/>
+    </row>
+    <row r="8" spans="1:19" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="84"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="38" t="s">
         <v>59</v>
       </c>
@@ -3143,11 +3093,11 @@
         <f>_xlfn.CONCAT("Atributo que contiene la información del nombre de un ",B7," en el contexto de ",A5," asociado a la reserva con el identificador' ",J8,"'.")</f>
         <v>Atributo que contiene la información del nombre de un ZonaComun en el contexto de Gestión de Conjuntos residenciales asociado a la reserva con el identificador' nombreZonaComun'.</v>
       </c>
-      <c r="S8" s="94"/>
-    </row>
-    <row r="9" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="90"/>
-      <c r="B9" s="92"/>
+      <c r="S8" s="88"/>
+    </row>
+    <row r="9" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="84"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="38" t="s">
         <v>64</v>
       </c>
@@ -3168,9 +3118,9 @@
       <c r="P9" s="38"/>
       <c r="Q9" s="38"/>
       <c r="R9" s="39"/>
-      <c r="S9" s="94"/>
-    </row>
-    <row r="10" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="S9" s="88"/>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A5:A9"/>
@@ -3196,107 +3146,107 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="13" customWidth="1"/>
     <col min="2" max="2" width="21" style="13" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" style="13" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="58" style="30" customWidth="1"/>
-    <col min="19" max="19" width="17.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.44140625" style="13"/>
+    <col min="19" max="19" width="17.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="82" t="str">
+      <c r="B1" s="89" t="str">
         <f>Reservas!D9</f>
         <v>Reserva-0002</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="83"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="77"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="79"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="90"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="81"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="86" t="s">
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="88" t="s">
+      <c r="S3" s="95" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
         <v>29</v>
       </c>
@@ -3348,14 +3298,14 @@
       <c r="Q4" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="R4" s="87"/>
-      <c r="S4" s="89"/>
-    </row>
-    <row r="5" spans="1:19" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="90" t="s">
+      <c r="R4" s="94"/>
+      <c r="S4" s="96"/>
+    </row>
+    <row r="5" spans="1:19" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="97" t="s">
         <v>68</v>
       </c>
       <c r="C5" s="36" t="s">
@@ -3392,18 +3342,18 @@
       <c r="O5" s="36"/>
       <c r="P5" s="36"/>
       <c r="Q5" s="36"/>
-      <c r="R5" s="100" t="str">
+      <c r="R5" s="47" t="str">
         <f>_xlfn.CONCAT("Atributo que contiene la informacion del identificador de un ",B5,"  en el contexto de ",A5,".")</f>
         <v>Atributo que contiene la informacion del identificador de un Agenda  en el contexto de Conjuntos Residenciales.</v>
       </c>
-      <c r="S5" s="102" t="str">
+      <c r="S5" s="98" t="str">
         <f>B7</f>
         <v>Turno</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="90"/>
-      <c r="B6" s="95"/>
+    <row r="6" spans="1:19" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="84"/>
+      <c r="B6" s="97"/>
       <c r="C6" s="36" t="s">
         <v>59</v>
       </c>
@@ -3438,15 +3388,15 @@
       <c r="O6" s="36"/>
       <c r="P6" s="36"/>
       <c r="Q6" s="36"/>
-      <c r="R6" s="100" t="str">
+      <c r="R6" s="47" t="str">
         <f>_xlfn.CONCAT("Atributo que contiene la información del nombre de un ",B5," en el contexto de ",A5," asociado al residente con el identificador' ",J6,"'.")</f>
         <v>Atributo que contiene la información del nombre de un Agenda en el contexto de Conjuntos Residenciales asociado al residente con el identificador' nombreAgenda'.</v>
       </c>
-      <c r="S6" s="103"/>
-    </row>
-    <row r="7" spans="1:19" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="90"/>
-      <c r="B7" s="92" t="s">
+      <c r="S6" s="99"/>
+    </row>
+    <row r="7" spans="1:19" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="84"/>
+      <c r="B7" s="86" t="s">
         <v>69</v>
       </c>
       <c r="C7" s="38" t="s">
@@ -3483,15 +3433,15 @@
       <c r="O7" s="38"/>
       <c r="P7" s="38"/>
       <c r="Q7" s="38"/>
-      <c r="R7" s="101" t="str">
+      <c r="R7" s="48" t="str">
         <f>_xlfn.CONCAT("Atributo que contiene la informacion del identificador de un ",B7,"  en el contexto de ",A5,".")</f>
         <v>Atributo que contiene la informacion del identificador de un Turno  en el contexto de Conjuntos Residenciales.</v>
       </c>
-      <c r="S7" s="103"/>
-    </row>
-    <row r="8" spans="1:19" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="90"/>
-      <c r="B8" s="92"/>
+      <c r="S7" s="99"/>
+    </row>
+    <row r="8" spans="1:19" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="84"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="38" t="s">
         <v>59</v>
       </c>
@@ -3526,15 +3476,15 @@
       <c r="O8" s="38"/>
       <c r="P8" s="38"/>
       <c r="Q8" s="38"/>
-      <c r="R8" s="101" t="str">
+      <c r="R8" s="48" t="str">
         <f>_xlfn.CONCAT("Atributo que contiene la información del nombre de un ",B7," en el contexto de ",A5," asociado a la reserva con el identificador' ",J8,"'.")</f>
         <v>Atributo que contiene la información del nombre de un Turno en el contexto de Conjuntos Residenciales asociado a la reserva con el identificador' nombreTurno'.</v>
       </c>
-      <c r="S8" s="103"/>
-    </row>
-    <row r="9" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="90"/>
-      <c r="B9" s="92"/>
+      <c r="S8" s="99"/>
+    </row>
+    <row r="9" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="84"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="38" t="s">
         <v>93</v>
       </c>
@@ -3554,10 +3504,10 @@
       <c r="O9" s="38"/>
       <c r="P9" s="38"/>
       <c r="Q9" s="38"/>
-      <c r="R9" s="101"/>
-      <c r="S9" s="104"/>
-    </row>
-    <row r="10" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="100"/>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A5:A9"/>
@@ -3579,111 +3529,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E4C5E7-072D-46C9-A943-F12FD1E94927}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="13" customWidth="1"/>
     <col min="2" max="2" width="21" style="13" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" style="13" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="58" style="30" customWidth="1"/>
-    <col min="19" max="19" width="17.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.44140625" style="13"/>
+    <col min="19" max="19" width="17.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="82" t="str">
+      <c r="B1" s="89" t="str">
         <f>Reservas!D9</f>
         <v>Reserva-0002</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="83"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="77"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="79"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="90"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="81"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="86" t="s">
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="88" t="s">
+      <c r="S3" s="95" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
         <v>29</v>
       </c>
@@ -3735,14 +3685,14 @@
       <c r="Q4" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="R4" s="87"/>
-      <c r="S4" s="89"/>
-    </row>
-    <row r="5" spans="1:19" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="90" t="s">
+      <c r="R4" s="94"/>
+      <c r="S4" s="96"/>
+    </row>
+    <row r="5" spans="1:19" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="97" t="s">
         <v>63</v>
       </c>
       <c r="C5" s="36" t="s">
@@ -3779,18 +3729,18 @@
       <c r="O5" s="36"/>
       <c r="P5" s="36"/>
       <c r="Q5" s="36"/>
-      <c r="R5" s="100" t="str">
+      <c r="R5" s="47" t="str">
         <f>_xlfn.CONCAT("Atributo que contiene la informacion del identificador de un ",B5,"  en el contexto de ",A5,".")</f>
         <v>Atributo que contiene la informacion del identificador de un ConjuntoResidencial  en el contexto de Gestión de Residentes.</v>
       </c>
-      <c r="S5" s="102" t="str">
+      <c r="S5" s="98" t="str">
         <f>B7</f>
         <v>Residente</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="90"/>
-      <c r="B6" s="95"/>
+    <row r="6" spans="1:19" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="84"/>
+      <c r="B6" s="97"/>
       <c r="C6" s="36" t="s">
         <v>59</v>
       </c>
@@ -3825,15 +3775,15 @@
       <c r="O6" s="36"/>
       <c r="P6" s="36"/>
       <c r="Q6" s="36"/>
-      <c r="R6" s="100" t="str">
+      <c r="R6" s="47" t="str">
         <f>_xlfn.CONCAT("Atributo que contiene la información del nombre de un ",B5," en el contexto de ",A5," asociado al residente con el identificador' ",J6,"'.")</f>
         <v>Atributo que contiene la información del nombre de un ConjuntoResidencial en el contexto de Gestión de Residentes asociado al residente con el identificador' nombreConjuntoResidencial'.</v>
       </c>
-      <c r="S6" s="103"/>
-    </row>
-    <row r="7" spans="1:19" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="90"/>
-      <c r="B7" s="92" t="s">
+      <c r="S6" s="99"/>
+    </row>
+    <row r="7" spans="1:19" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="84"/>
+      <c r="B7" s="86" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="38" t="s">
@@ -3870,15 +3820,15 @@
       <c r="O7" s="38"/>
       <c r="P7" s="38"/>
       <c r="Q7" s="38"/>
-      <c r="R7" s="101" t="str">
+      <c r="R7" s="48" t="str">
         <f>_xlfn.CONCAT("Atributo que contiene la informacion del identificador de un ",B7,"  en el contexto de ",A5,".")</f>
         <v>Atributo que contiene la informacion del identificador de un Residente  en el contexto de Gestión de Residentes.</v>
       </c>
-      <c r="S7" s="103"/>
-    </row>
-    <row r="8" spans="1:19" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="90"/>
-      <c r="B8" s="92"/>
+      <c r="S7" s="99"/>
+    </row>
+    <row r="8" spans="1:19" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="84"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="38" t="s">
         <v>59</v>
       </c>
@@ -3913,15 +3863,15 @@
       <c r="O8" s="38"/>
       <c r="P8" s="38"/>
       <c r="Q8" s="38"/>
-      <c r="R8" s="101" t="str">
+      <c r="R8" s="48" t="str">
         <f>_xlfn.CONCAT("Atributo que contiene la información del nombre de un ",B7," en el contexto de ",A5," asociado a la reserva con el identificador' ",J8,"'.")</f>
         <v>Atributo que contiene la información del nombre de un Residente en el contexto de Gestión de Residentes asociado a la reserva con el identificador' nombreResidente'.</v>
       </c>
-      <c r="S8" s="103"/>
-    </row>
-    <row r="9" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="90"/>
-      <c r="B9" s="92"/>
+      <c r="S8" s="99"/>
+    </row>
+    <row r="9" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="84"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="38" t="s">
         <v>93</v>
       </c>
@@ -3941,22 +3891,22 @@
       <c r="O9" s="38"/>
       <c r="P9" s="38"/>
       <c r="Q9" s="38"/>
-      <c r="R9" s="101"/>
-      <c r="S9" s="104"/>
-    </row>
-    <row r="10" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="100"/>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="S5:S9"/>
+    <mergeCell ref="B7:B9"/>
     <mergeCell ref="B1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="J3:Q3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="S5:S9"/>
-    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Doo-Doc/Nueva Version Victus/Modelo de dominio anémico de contextos-VictusResidencias.xlsx
+++ b/Doo-Doc/Nueva Version Victus/Modelo de dominio anémico de contextos-VictusResidencias.xlsx
@@ -1,31 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\trabajoDOO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/juan_avendano1956_uco_net_co/Documents/Documents/victus-doc/Doo-Doc/Nueva Version Victus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C7ADEF-25B3-46F3-A8C5-B1005FE667E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{D3C7ADEF-25B3-46F3-A8C5-B1005FE667E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0ADD31DD-23F5-48CC-9DAE-B0F04C3C67CA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{082AFB46-52C9-4E4C-AE4E-19443AA1B53B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="10" xr2:uid="{082AFB46-52C9-4E4C-AE4E-19443AA1B53B}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="3" r:id="rId1"/>
     <sheet name="ContextMapping" sheetId="1" r:id="rId2"/>
     <sheet name="Contextos" sheetId="2" r:id="rId3"/>
-    <sheet name=" Gestión de Conjuntos residenci" sheetId="4" r:id="rId4"/>
-    <sheet name="Gestión de Residentes" sheetId="5" r:id="rId5"/>
-    <sheet name="Reservas" sheetId="6" r:id="rId6"/>
-    <sheet name="Reserva-0001" sheetId="8" r:id="rId7"/>
-    <sheet name="Reserva-0002" sheetId="9" r:id="rId8"/>
-    <sheet name="Reserva-0003" sheetId="10" r:id="rId9"/>
-    <sheet name="CaracterizaciónContexto1" sheetId="7" r:id="rId10"/>
+    <sheet name="Conjuntos Residenciales" sheetId="4" r:id="rId4"/>
+    <sheet name="Residentes" sheetId="5" r:id="rId5"/>
+    <sheet name="Agendas" sheetId="11" r:id="rId6"/>
+    <sheet name="Reservas" sheetId="6" r:id="rId7"/>
+    <sheet name="Reserva-0001" sheetId="8" r:id="rId8"/>
+    <sheet name="Reserva-0002" sheetId="9" r:id="rId9"/>
+    <sheet name="Reserva-0003" sheetId="10" r:id="rId10"/>
+    <sheet name="CaracterizaciónContexto1" sheetId="7" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="94">
   <si>
     <t>Problema/Dominio:</t>
   </si>
@@ -119,9 +120,6 @@
     <t>Separate Ways</t>
   </si>
   <si>
-    <t>Zona Comun</t>
-  </si>
-  <si>
     <t>Conjunto residencial</t>
   </si>
   <si>
@@ -248,9 +246,6 @@
     <t>Reservas</t>
   </si>
   <si>
-    <t xml:space="preserve"> Gestión de Conjuntos residenciales</t>
-  </si>
-  <si>
     <t>Gestión de Residentes</t>
   </si>
   <si>
@@ -263,9 +258,6 @@
     <t>Administrador</t>
   </si>
   <si>
-    <t>Publicación</t>
-  </si>
-  <si>
     <t>Contexto cuya motivación es Gestionar la estructura física y los recursos disponibles en cada conjunto residencial. Aquí se manejan los datos sobre qué conjuntos existen, dónde están ubicados, qué recursos ofrecen según una Agenda con respectivos turnos para cada zona.</t>
   </si>
   <si>
@@ -293,33 +285,9 @@
     <t>Punto de comunicación en intercambio de información relacionadas con las zonas comunes donde pertenece a conjuntos residenciales.</t>
   </si>
   <si>
-    <t>Momento donde se establese una peticion de información según que tipo de Agenda hay para una zona comun.</t>
-  </si>
-  <si>
-    <t>Momento donde se establese una peticion de información según que tipo de turnos hay en una Agenda.</t>
-  </si>
-  <si>
-    <t>Punto de comunicación en intercambio de información relacionadas con las publicaciones que pertenecen a muchos Administradores.</t>
-  </si>
-  <si>
-    <t>Punto de comunicación en intercambio de información para identificar que el residente pertenece a un conjunto residencial.</t>
-  </si>
-  <si>
     <t>Punto de comunicación en intercambio de información relacionadas con saber de que conjunto residencial pertenecen los administradores.</t>
   </si>
   <si>
-    <t>Admistrador</t>
-  </si>
-  <si>
-    <t>Momento donde se establese una peticion de información donde el Admistrador configura los residentes CRUD.</t>
-  </si>
-  <si>
-    <t>Momento donde se establese una peticion de información donde los Admistradores configuran una zona comun CRUD.</t>
-  </si>
-  <si>
-    <t>Punto de comunicación en intercambio de información para identificar que zona comun se le esta haciendo una reserva.</t>
-  </si>
-  <si>
     <t>Momento donde se establese una peticion de información según que turno se escogio para la reserva.</t>
   </si>
   <si>
@@ -330,6 +298,39 @@
   </si>
   <si>
     <t>agenda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Conjuntos residenciales</t>
+  </si>
+  <si>
+    <t>Residentes</t>
+  </si>
+  <si>
+    <t>ZonaInmueble</t>
+  </si>
+  <si>
+    <t>Inmueble</t>
+  </si>
+  <si>
+    <t>Agendas</t>
+  </si>
+  <si>
+    <t>Contexto cuya motivación es la de gestionar la estructura de la agenda que va a tener una zona común durante un un tiempo estimado y sus diferentes turnos.</t>
+  </si>
+  <si>
+    <t>Punto de comunicación en intercambio de información relacionadas con las zonas de inmeubles donde pertenece a conjuntos residenciales.</t>
+  </si>
+  <si>
+    <t>Punto de comunicación en intercambio de información relacionadas con los inmuebles donde pertenece a una zona inmueble</t>
+  </si>
+  <si>
+    <t>Punto de comunicación en intercambio de información para identificar que el residente pertenece a un inmueble.</t>
+  </si>
+  <si>
+    <t>Punto de comunicación en intercambio de información relacionadas con saber de que zona común pertenecen la agenda.</t>
+  </si>
+  <si>
+    <t>Punto de comunicación en intercambio de información relacionadas con la Agenda donde pertenece los turnos.</t>
   </si>
 </sst>
 </file>
@@ -382,7 +383,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -443,6 +444,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="27">
     <border>
@@ -810,7 +817,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -908,9 +915,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -963,24 +967,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1123,6 +1109,66 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1181,6 +1227,50 @@
         <a:xfrm>
           <a:off x="76200" y="95250"/>
           <a:ext cx="7125694" cy="5077534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>106119</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>106926</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A36EFD4D-C4E8-F7BE-082B-841D7718F08F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10886" y="0"/>
+          <a:ext cx="9631119" cy="5658640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1543,20 +1633,20 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="79.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="50"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="49"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -1564,7 +1654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -1572,7 +1662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
@@ -1580,66 +1670,66 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+    <row r="5" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+    <row r="7" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="41" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="42" t="s">
+    <row r="11" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="43" t="s">
+    <row r="12" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="42" t="s">
+    <row r="13" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="41" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1651,171 +1741,558 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E4C5E7-072D-46C9-A943-F12FD1E94927}">
+  <dimension ref="A1:S10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="21" style="13" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="58" style="30" customWidth="1"/>
+    <col min="19" max="19" width="17.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="82" t="str">
+        <f>Reservas!D8</f>
+        <v>Reserva-0001</v>
+      </c>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="83"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="74"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="86" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="88" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="R4" s="87"/>
+      <c r="S4" s="89"/>
+    </row>
+    <row r="5" spans="1:19" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="35">
+        <v>32</v>
+      </c>
+      <c r="F5" s="35">
+        <v>32</v>
+      </c>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35" t="str">
+        <f>_xlfn.CONCAT(C5,$B$5)</f>
+        <v>identificadorConjuntoResidencial</v>
+      </c>
+      <c r="K5" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="35">
+        <v>32</v>
+      </c>
+      <c r="N5" s="35">
+        <v>32</v>
+      </c>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="46" t="str">
+        <f>_xlfn.CONCAT("Atributo que contiene la informacion del identificador de un ",B5,"  en el contexto de ",A5,".")</f>
+        <v>Atributo que contiene la informacion del identificador de un ConjuntoResidencial  en el contexto de Gestión de Residentes.</v>
+      </c>
+      <c r="S5" s="91" t="str">
+        <f>B7</f>
+        <v>Residente</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="77"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="35">
+        <v>1</v>
+      </c>
+      <c r="F6" s="35">
+        <v>50</v>
+      </c>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35" t="str">
+        <f>_xlfn.CONCAT(C6,$B$5)</f>
+        <v>nombreConjuntoResidencial</v>
+      </c>
+      <c r="K6" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" s="35">
+        <v>1</v>
+      </c>
+      <c r="N6" s="35">
+        <v>50</v>
+      </c>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="46" t="str">
+        <f>_xlfn.CONCAT("Atributo que contiene la información del nombre de un ",B5," en el contexto de ",A5," asociado al residente con el identificador' ",J6,"'.")</f>
+        <v>Atributo que contiene la información del nombre de un ConjuntoResidencial en el contexto de Gestión de Residentes asociado al residente con el identificador' nombreConjuntoResidencial'.</v>
+      </c>
+      <c r="S6" s="92"/>
+    </row>
+    <row r="7" spans="1:19" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="77"/>
+      <c r="B7" s="79" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="37">
+        <v>32</v>
+      </c>
+      <c r="F7" s="37">
+        <v>32</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37" t="str">
+        <f>_xlfn.CONCAT(C5,$B$7)</f>
+        <v>identificadorResidente</v>
+      </c>
+      <c r="K7" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" s="37">
+        <v>32</v>
+      </c>
+      <c r="N7" s="37">
+        <v>32</v>
+      </c>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="47" t="str">
+        <f>_xlfn.CONCAT("Atributo que contiene la informacion del identificador de un ",B7,"  en el contexto de ",A5,".")</f>
+        <v>Atributo que contiene la informacion del identificador de un Residente  en el contexto de Gestión de Residentes.</v>
+      </c>
+      <c r="S7" s="92"/>
+    </row>
+    <row r="8" spans="1:19" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="77"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="37">
+        <v>1</v>
+      </c>
+      <c r="F8" s="37">
+        <v>50</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37" t="str">
+        <f>_xlfn.CONCAT(C6,$B$7)</f>
+        <v>nombreResidente</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="M8" s="37">
+        <v>1</v>
+      </c>
+      <c r="N8" s="37">
+        <v>50</v>
+      </c>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="47" t="str">
+        <f>_xlfn.CONCAT("Atributo que contiene la información del nombre de un ",B7," en el contexto de ",A5," asociado a la reserva con el identificador' ",J8,"'.")</f>
+        <v>Atributo que contiene la información del nombre de un Residente en el contexto de Gestión de Residentes asociado a la reserva con el identificador' nombreResidente'.</v>
+      </c>
+      <c r="S8" s="92"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="77"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="93"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="S5:S9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="J3:Q3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA574C3-CD54-44A7-8A00-D1CB8315B9A2}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" style="13" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" style="13" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="58" style="30" customWidth="1"/>
-    <col min="19" max="19" width="17.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="13"/>
+    <col min="19" max="19" width="17.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="101">
+        <v>39</v>
+      </c>
+      <c r="B1" s="94">
         <f>'[1]Configuración Apuestas'!D10</f>
         <v>0</v>
       </c>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="102"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="95"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="74"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="81"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92" t="s">
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="86" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="93" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="95" t="s">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="16" t="s">
+      <c r="C4" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="D4" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="E4" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="F4" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="G4" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="H4" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="I4" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="J4" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="K4" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="16" t="s">
-        <v>56</v>
-      </c>
       <c r="L4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="N4" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="O4" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="O4" s="16" t="s">
+      <c r="P4" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="Q4" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="Q4" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="R4" s="103"/>
-      <c r="S4" s="104"/>
-    </row>
-    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R4" s="96"/>
+      <c r="S4" s="97"/>
+    </row>
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="26"/>
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
@@ -1853,11 +2330,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1464EB49-FF8E-46BB-B8BB-A3B13262BCA8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1866,49 +2343,49 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825409BB-6EDF-4233-9680-0DFD77A9FF39}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B10"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.7109375" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="36.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.6640625" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="61"/>
-    </row>
-    <row r="2" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="53"/>
+      <c r="D1" s="54"/>
+    </row>
+    <row r="2" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="57"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1922,157 +2399,171 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="71" t="s">
-        <v>66</v>
+      <c r="B5" s="64" t="s">
+        <v>83</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="72" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
-      <c r="B6" s="71"/>
+        <v>23</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="63"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="72"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
-      <c r="B7" s="71"/>
+        <v>41</v>
+      </c>
+      <c r="D6" s="65"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="63"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="72"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="70"/>
-      <c r="B8" s="71"/>
+      <c r="D7" s="65"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="63"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="72"/>
-    </row>
-    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
-      <c r="B9" s="71"/>
+        <v>85</v>
+      </c>
+      <c r="D8" s="65"/>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="63"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="72"/>
-    </row>
-    <row r="10" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="72"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="65"/>
+    </row>
+    <row r="10" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="69" t="s">
+      <c r="B10" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="61"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="61"/>
+    </row>
+    <row r="12" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="108" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="51"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="51"/>
+    </row>
+    <row r="14" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="52"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="D14" s="52"/>
+    </row>
+    <row r="15" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="98" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="99" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="68" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="68"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="68"/>
-    </row>
-    <row r="13" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="68"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="32" t="s">
+      <c r="D15" s="101" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="102"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="100" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="104"/>
+    </row>
+    <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="102"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="104"/>
+    </row>
+    <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="105"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="68"/>
-    </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="57" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="58"/>
-    </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="58"/>
-    </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="59"/>
+      <c r="D18" s="107"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="D14:D17"/>
+  <mergeCells count="15">
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="D15:D18"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="D5:D10"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="D12:D14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C5" location="'Administración conjunto residen'!A8" display="Conjunto residencial" xr:uid="{E03F3EA4-3CA3-4B3F-9D0C-49720165FE4D}"/>
-    <hyperlink ref="C9" location="'Administración conjunto residen'!B8" display="Zona comun" xr:uid="{36D2590F-4759-453E-B387-25A8472AE986}"/>
-    <hyperlink ref="C10" location="'Administración conjunto residen'!A9" display="Tipo zona comun" xr:uid="{FC08B23B-408A-4F83-9FED-3E03BA43C1EA}"/>
-    <hyperlink ref="C11" location="'Gestión Residente'!B8" display="Residente" xr:uid="{15D235C3-AE5D-4A66-A93D-478D5D68669F}"/>
-    <hyperlink ref="C12" location="'Gestión Residente'!B9" display="Inmueble" xr:uid="{6584AA09-0FDA-44EF-9598-EC5F08FDAFD8}"/>
-    <hyperlink ref="C13" location="'Gestión Residente'!A9" display="ZonaHabitada" xr:uid="{E45FCE5E-CCFD-4E0F-B10E-AD3E7BB8F2D6}"/>
-    <hyperlink ref="C14" location="'Gestión Reserva'!B8" display="Reserva" xr:uid="{2E0ED804-61AA-4A90-AAE3-8F0B303F658C}"/>
-    <hyperlink ref="C16" location="'Gestión Reserva'!B8" display="Reserva" xr:uid="{E878213B-9F54-4252-9D19-6B4F3157C261}"/>
-    <hyperlink ref="C15" location="'Gestión Reserva'!B8" display="Reserva" xr:uid="{3AEC1B7B-847C-4D90-85B8-89FD1EDB9CCF}"/>
-    <hyperlink ref="C17" location="'Gestión Reserva'!B8" display="Reserva" xr:uid="{06F2A3BB-2F3D-4865-BA9B-39469E4D9172}"/>
-    <hyperlink ref="B5:B10" location="' Gestión de Conjuntos residenci'!A1" display=" Gestión de Conjuntos residenciales" xr:uid="{62FF8688-50B6-499B-97D0-E2EE0B9A5049}"/>
-    <hyperlink ref="B11:B13" location="'Gestión de Residentes'!A1" display="Gestión de Residentes" xr:uid="{18061B1D-C566-4199-8F9A-D57F9796EBE2}"/>
-    <hyperlink ref="B14:B17" location="Reservas!A1" display="Reservas" xr:uid="{10D3C645-B6DE-49BB-BCBB-2C5B720CFEDD}"/>
+    <hyperlink ref="C10" location="'Gestión Residente'!B8" display="Residente" xr:uid="{15D235C3-AE5D-4A66-A93D-478D5D68669F}"/>
+    <hyperlink ref="C11" location="'Gestión Residente'!A9" display="ZonaHabitada" xr:uid="{E45FCE5E-CCFD-4E0F-B10E-AD3E7BB8F2D6}"/>
+    <hyperlink ref="C15" location="'Gestión Reserva'!B8" display="Reserva" xr:uid="{2E0ED804-61AA-4A90-AAE3-8F0B303F658C}"/>
+    <hyperlink ref="C17" location="'Gestión Reserva'!B8" display="Reserva" xr:uid="{E878213B-9F54-4252-9D19-6B4F3157C261}"/>
+    <hyperlink ref="C16" location="'Gestión Reserva'!B8" display="Reserva" xr:uid="{3AEC1B7B-847C-4D90-85B8-89FD1EDB9CCF}"/>
+    <hyperlink ref="C18" location="'Gestión Reserva'!B8" display="Reserva" xr:uid="{06F2A3BB-2F3D-4865-BA9B-39469E4D9172}"/>
+    <hyperlink ref="B5:B9" location="' Gestión de Conjuntos residenci'!A1" display=" Gestión de Conjuntos residenciales" xr:uid="{62FF8688-50B6-499B-97D0-E2EE0B9A5049}"/>
+    <hyperlink ref="B10:B11" location="'Gestión de Residentes'!A1" display="Gestión de Residentes" xr:uid="{18061B1D-C566-4199-8F9A-D57F9796EBE2}"/>
+    <hyperlink ref="B15:B18" location="Reservas!A1" display="Reservas" xr:uid="{10D3C645-B6DE-49BB-BCBB-2C5B720CFEDD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2082,7 +2573,7 @@
           <x14:formula1>
             <xm:f>Valores!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A5:A8 A11:A14</xm:sqref>
+          <xm:sqref>A5:A8 A10:A12 A15</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2092,247 +2583,203 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450F8E16-67C6-432D-A5AA-BF67F960EE18}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="38.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="38.33203125" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="64" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="13"/>
+    <col min="7" max="16384" width="11.44140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="66" t="str">
+        <f>Contextos!B5</f>
+        <v xml:space="preserve"> Conjuntos residenciales</v>
+      </c>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="67"/>
+    </row>
+    <row r="2" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="73" t="str">
-        <f>Contextos!B5</f>
-        <v xml:space="preserve"> Gestión de Conjuntos residenciales</v>
-      </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="74"/>
-    </row>
-    <row r="2" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="75" t="str">
+      <c r="B2" s="68" t="str">
         <f>Contextos!D5</f>
         <v>Contexto cuya motivación es Gestionar la estructura física y los recursos disponibles en cada conjunto residencial. Aquí se manejan los datos sobre qué conjuntos existen, dónde están ubicados, qué recursos ofrecen según una Agenda con respectivos turnos para cada zona.</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="69"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="77" t="str">
+      <c r="B3" s="70" t="str">
         <f>Contextos!A5</f>
         <v>Core/Básico</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="71"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="74"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="81"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="D5" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="E5" s="75"/>
+      <c r="F5" s="76" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="83" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="B6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="76"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="83"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="B7" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="C7" s="75"/>
+      <c r="D7" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="83"/>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="19" t="s">
+      <c r="F7" s="76"/>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="44" t="str">
+      <c r="D8" s="113" t="str">
         <f>B8&amp;" "&amp;A8&amp;"-0001"</f>
-        <v>Zona Comun Conjunto Residencial-0001</v>
+        <v>Administrador Conjunto Residencial-0001</v>
       </c>
       <c r="E8" s="45" t="str">
         <f>_xlfn.CONCAT(A8," de ",B8)</f>
-        <v>Conjunto Residencial de Zona Comun</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="24" t="s">
+        <v>Conjunto Residencial de Administrador</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="24" t="str">
-        <f t="shared" ref="D9:D11" si="0">B9&amp;" "&amp;A9&amp;"-0001"</f>
-        <v>Agenda Zona Comun-0001</v>
-      </c>
-      <c r="E9" s="46" t="str">
-        <f t="shared" ref="E9:E10" si="1">_xlfn.CONCAT(A9," de ",B9)</f>
-        <v>Zona Comun de Agenda</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="19" t="s">
+      <c r="D9" s="43" t="str">
+        <f>B9&amp;" "&amp;A9&amp;"-0001"</f>
+        <v>ZonaComun Conjunto Residencial-0001</v>
+      </c>
+      <c r="E9" s="44" t="str">
+        <f>_xlfn.CONCAT(A9," de ",B9)</f>
+        <v>Conjunto Residencial de ZonaComun</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="111" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="111" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="44" t="str">
-        <f t="shared" si="0"/>
-        <v>Turno Agenda-0001</v>
-      </c>
-      <c r="E10" s="45" t="str">
-        <f t="shared" si="1"/>
-        <v>Agenda de Turno</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="24" t="s">
+      <c r="D10" s="113" t="str">
+        <f>B10&amp;" "&amp;A10&amp;"-0001"</f>
+        <v>ZonaInmueble Conjunto Residencial-0001</v>
+      </c>
+      <c r="E10" s="114" t="str">
+        <f>_xlfn.CONCAT(A10," de ",B10)</f>
+        <v>Conjunto Residencial de ZonaInmueble</v>
+      </c>
+      <c r="F10" s="115" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>Administrador Conjunto Residencial-0001</v>
-      </c>
-      <c r="E11" s="46" t="str">
-        <f>_xlfn.CONCAT(A11," de ",B11)</f>
-        <v>Conjunto Residencial de Administrador</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="44" t="str">
-        <f>B12&amp;" "&amp;A12&amp;"-0001"</f>
-        <v>Publicación Administrador-0001</v>
-      </c>
-      <c r="E12" s="45" t="str">
-        <f>_xlfn.CONCAT(A12," con ",B12)</f>
-        <v>Administrador con Publicación</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="24" t="str">
-        <f>B13&amp;" "&amp;A13&amp;"-0002"</f>
-        <v>Administrador Zona Comun-0002</v>
-      </c>
-      <c r="E13" s="46" t="str">
-        <f>_xlfn.CONCAT(A13," con ",B13)</f>
-        <v>Zona Comun con Administrador</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>88</v>
+      <c r="D11" s="43" t="str">
+        <f t="shared" ref="D11" si="0">B11&amp;" "&amp;A11&amp;"-0001"</f>
+        <v>Inmueble ZonaInmueble-0001</v>
+      </c>
+      <c r="E11" s="44" t="str">
+        <f t="shared" ref="E11" si="1">_xlfn.CONCAT(A11," de ",B11)</f>
+        <v>ZonaInmueble de Inmueble</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2353,7 +2800,7 @@
           <x14:formula1>
             <xm:f>Valores!$A$7:$A$13</xm:f>
           </x14:formula1>
-          <xm:sqref>C8:C13</xm:sqref>
+          <xm:sqref>C8:C11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2363,160 +2810,138 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D386A343-6D12-4FEA-AEEF-63E15D63FE79}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="64" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="13"/>
+    <col min="7" max="16384" width="11.44140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="66" t="str">
+        <f>Contextos!B10</f>
+        <v>Residentes</v>
+      </c>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="67"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="73" t="str">
-        <f>Contextos!B11</f>
-        <v>Gestión de Residentes</v>
-      </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="74"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="75" t="str">
-        <f>Contextos!D11</f>
+      <c r="B2" s="68" t="str">
+        <f>Contextos!D10</f>
         <v>Contexto cuya motivación es encargarce de manejar la información de los residentes, incluidas sus identificaciones, contacto, y la relación entre el residente y su residencia dentro del conjunto.</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="69"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="77" t="str">
-        <f>Contextos!A11</f>
+      <c r="B3" s="70" t="str">
+        <f>Contextos!A10</f>
         <v>Core/Básico</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="71"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="74"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="81"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="D5" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="E5" s="75"/>
+      <c r="F5" s="76" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="83" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="B6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="76"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="83"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="B7" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="C7" s="75"/>
+      <c r="D7" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="83"/>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F7" s="76"/>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="20" t="str">
         <f>B8&amp;" "&amp;A8&amp;"-0001"</f>
-        <v>Residente ConjuntoResidencial-0001</v>
+        <v>Residente Inmueble-0001</v>
       </c>
       <c r="E8" s="21" t="str">
         <f>_xlfn.CONCAT(A8," de ",B8)</f>
-        <v>ConjuntoResidencial de Residente</v>
+        <v>Inmueble de Residente</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="24" t="str">
-        <f>B9&amp;" "&amp;A9&amp;"-0003"</f>
-        <v>Admistrador Residente-0003</v>
-      </c>
-      <c r="E9" s="24" t="str">
-        <f>_xlfn.CONCAT(A9," de ",B9)</f>
-        <v>Residente de Admistrador</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2537,6 +2962,189 @@
           <x14:formula1>
             <xm:f>Valores!$A$7:$A$13</xm:f>
           </x14:formula1>
+          <xm:sqref>C8</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA1C796-BDF1-44E4-8EC8-5B53FD905390}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="38.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.44140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="66" t="str">
+        <f>Contextos!B12</f>
+        <v>Agendas</v>
+      </c>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="67"/>
+    </row>
+    <row r="2" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="68" t="str">
+        <f>Contextos!D12</f>
+        <v>Contexto cuya motivación es la de gestionar la estructura de la agenda que va a tener una zona común durante un un tiempo estimado y sus diferentes turnos.</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="69"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="70" t="str">
+        <f>Contextos!A12</f>
+        <v>Core/Básico</v>
+      </c>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="71"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="74"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="75"/>
+      <c r="F5" s="76" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="76"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="75"/>
+      <c r="D7" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="76"/>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="113" t="str">
+        <f>B8&amp;" "&amp;A8&amp;"-0001"</f>
+        <v>Agenda ZonaComun-0001</v>
+      </c>
+      <c r="E8" s="45" t="str">
+        <f>_xlfn.CONCAT(A8," de ",B8)</f>
+        <v>ZonaComun de Agenda</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="43" t="str">
+        <f>B9&amp;" "&amp;A9&amp;"-0001"</f>
+        <v>Turno Agenda-0001</v>
+      </c>
+      <c r="E9" s="44" t="str">
+        <f>_xlfn.CONCAT(A9," de ",B9)</f>
+        <v>Agenda de Turno</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="F5:F7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1152987F-9E39-4903-BCD8-F1D7386E65E3}">
+          <x14:formula1>
+            <xm:f>Valores!$A$7:$A$13</xm:f>
+          </x14:formula1>
           <xm:sqref>C8:C9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
@@ -2545,184 +3153,162 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C088BE7-88A8-46E0-AF18-6F40B3F602F8}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="64" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="13"/>
+    <col min="7" max="16384" width="11.44140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="66" t="str">
+        <f>Contextos!B15</f>
+        <v>Reservas</v>
+      </c>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="67"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="73" t="str">
-        <f>Contextos!B14</f>
-        <v>Reservas</v>
-      </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="74"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="75" t="str">
-        <f>Contextos!D14</f>
+      <c r="B2" s="68" t="str">
+        <f>Contextos!D15</f>
         <v>Contexto cuya intención enfocarse en la gestión del proceso de reservas de los recursos, incluyendo la disponibilidad de los recursos y las reservas que los residentes realizan.</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="69"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="77" t="str">
-        <f>Contextos!A14</f>
+      <c r="B3" s="70" t="str">
+        <f>Contextos!A15</f>
         <v>Core/Básico</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="71"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="74"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="81"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="D5" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="E5" s="75"/>
+      <c r="F5" s="76" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="83" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="B6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="76"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="83"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="B7" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="C7" s="75"/>
+      <c r="D7" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="83"/>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="19" t="s">
+      <c r="F7" s="76"/>
+    </row>
+    <row r="8" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="20" t="str">
+      <c r="D8" s="116" t="str">
         <f>B8&amp;"-0001"</f>
         <v>Reserva-0001</v>
       </c>
-      <c r="E8" s="21" t="str">
-        <f>_xlfn.CONCAT(A8," de ",B8)</f>
-        <v>ZonaComun de Reserva</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="24" t="s">
+      <c r="E8" s="117" t="str">
+        <f t="shared" ref="E8:E9" si="0">_xlfn.CONCAT(A8," de ",B8)</f>
+        <v>Turno de Reserva</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="24" t="str">
+      <c r="D9" s="20" t="str">
         <f>B9&amp;"-0002"</f>
         <v>Reserva-0002</v>
       </c>
-      <c r="E9" s="24" t="str">
-        <f t="shared" ref="E9:E10" si="0">_xlfn.CONCAT(A9," de ",B9)</f>
-        <v>Turno de Reserva</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="20" t="str">
-        <f>B10&amp;"-0003"</f>
-        <v>Reserva-0003</v>
-      </c>
-      <c r="E10" s="21" t="str">
+      <c r="E9" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Residente de Reserva</v>
       </c>
-      <c r="F10" s="22" t="s">
-        <v>91</v>
+      <c r="F9" s="22" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2743,7 +3329,7 @@
           <x14:formula1>
             <xm:f>Valores!$A$7:$A$13</xm:f>
           </x14:formula1>
-          <xm:sqref>C8:C10</xm:sqref>
+          <xm:sqref>C8:C9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2751,376 +3337,376 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3888799-E6A1-4FAB-A09B-AF9FE652AF52}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" style="13" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" style="13" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="58" style="30" customWidth="1"/>
-    <col min="19" max="19" width="17.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="13"/>
+    <col min="19" max="19" width="17.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="89" t="str">
-        <f>Reservas!D8</f>
-        <v>Reserva-0001</v>
-      </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="90"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="81"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="82" t="e">
+        <f>Reservas!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="83"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="74"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92" t="s">
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="86" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="93" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="95" t="s">
+    </row>
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="35" t="s">
+      <c r="C4" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="D4" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="E4" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="F4" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="G4" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="H4" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="I4" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="J4" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="K4" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="L4" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="R4" s="87"/>
+      <c r="S4" s="89"/>
+    </row>
+    <row r="5" spans="1:19" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="O4" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="P4" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q4" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="R4" s="94"/>
-      <c r="S4" s="96"/>
-    </row>
-    <row r="5" spans="1:19" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="84" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="85" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="36" t="s">
+      <c r="D5" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="36">
+      <c r="E5" s="35">
         <v>32</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="35">
         <v>32</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36" t="str">
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35" t="str">
         <f>_xlfn.CONCAT(C5,$B$5)</f>
         <v>identificadorConjuntoResidencial</v>
       </c>
-      <c r="K5" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="L5" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="M5" s="36">
+      <c r="K5" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="35">
         <v>32</v>
       </c>
-      <c r="N5" s="36">
+      <c r="N5" s="35">
         <v>32</v>
       </c>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="37" t="str">
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="36" t="str">
         <f>_xlfn.CONCAT("Atributo que contiene la informacion del identificador de un ",B5,"  en el contexto de ",A5,".")</f>
         <v>Atributo que contiene la informacion del identificador de un ConjuntoResidencial  en el contexto de Gestión de Conjuntos residenciales.</v>
       </c>
-      <c r="S5" s="87" t="str">
+      <c r="S5" s="80" t="str">
         <f>B7</f>
         <v>ZonaComun</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="84"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="36" t="s">
+    <row r="6" spans="1:19" ht="58.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="77"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="36">
+      <c r="E6" s="35">
         <v>1</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="35">
         <v>50</v>
       </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36" t="str">
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35" t="str">
         <f>_xlfn.CONCAT(C6,$B$5)</f>
         <v>nombreConjuntoResidencial</v>
       </c>
-      <c r="K6" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="L6" s="36" t="s">
+      <c r="K6" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="M6" s="36">
+      <c r="L6" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" s="35">
         <v>1</v>
       </c>
-      <c r="N6" s="36">
+      <c r="N6" s="35">
         <v>50</v>
       </c>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="37" t="str">
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="36" t="str">
         <f>_xlfn.CONCAT("Atributo que contiene la información del nombre de un ",B5," en el contexto de ",A5," asociado al residente con el identificador' ",J6,"'.")</f>
         <v>Atributo que contiene la información del nombre de un ConjuntoResidencial en el contexto de Gestión de Conjuntos residenciales asociado al residente con el identificador' nombreConjuntoResidencial'.</v>
       </c>
-      <c r="S6" s="88"/>
-    </row>
-    <row r="7" spans="1:19" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="84"/>
-      <c r="B7" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="38" t="s">
+      <c r="S6" s="81"/>
+    </row>
+    <row r="7" spans="1:19" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="77"/>
+      <c r="B7" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="38">
+      <c r="E7" s="37">
         <v>32</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="37">
         <v>32</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38" t="str">
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37" t="str">
         <f>_xlfn.CONCAT(C5,$B$7)</f>
         <v>identificadorZonaComun</v>
       </c>
-      <c r="K7" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="L7" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="M7" s="38">
+      <c r="K7" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" s="37">
         <v>32</v>
       </c>
-      <c r="N7" s="38">
+      <c r="N7" s="37">
         <v>32</v>
       </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="39" t="str">
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="38" t="str">
         <f>_xlfn.CONCAT("Atributo que contiene la informacion del identificador de un ",B7,"  en el contexto de ",A5,".")</f>
         <v>Atributo que contiene la informacion del identificador de un ZonaComun  en el contexto de Gestión de Conjuntos residenciales.</v>
       </c>
-      <c r="S7" s="88"/>
-    </row>
-    <row r="8" spans="1:19" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="84"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="38" t="s">
+      <c r="S7" s="81"/>
+    </row>
+    <row r="8" spans="1:19" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="77"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="38">
+      <c r="E8" s="37">
         <v>1</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="37">
         <v>50</v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38" t="str">
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37" t="str">
         <f>_xlfn.CONCAT(C6,$B$7)</f>
         <v>nombreZonaComun</v>
       </c>
-      <c r="K8" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="L8" s="38" t="s">
+      <c r="K8" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="M8" s="38">
+      <c r="L8" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="M8" s="37">
         <v>1</v>
       </c>
-      <c r="N8" s="38">
+      <c r="N8" s="37">
         <v>50</v>
       </c>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="39" t="str">
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="38" t="str">
         <f>_xlfn.CONCAT("Atributo que contiene la información del nombre de un ",B7," en el contexto de ",A5," asociado a la reserva con el identificador' ",J8,"'.")</f>
         <v>Atributo que contiene la información del nombre de un ZonaComun en el contexto de Gestión de Conjuntos residenciales asociado a la reserva con el identificador' nombreZonaComun'.</v>
       </c>
-      <c r="S8" s="88"/>
-    </row>
-    <row r="9" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="84"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="38" t="s">
+      <c r="S8" s="81"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="77"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="88"/>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="D9" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="81"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A5:A9"/>
@@ -3138,7 +3724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC2EBB7-5669-4BC7-8C4D-6FF94FADDE33}">
   <dimension ref="A1:S10"/>
   <sheetViews>
@@ -3146,368 +3732,368 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="13" customWidth="1"/>
     <col min="2" max="2" width="21" style="13" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" style="13" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" style="13" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="58" style="30" customWidth="1"/>
-    <col min="19" max="19" width="17.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="13"/>
+    <col min="19" max="19" width="17.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="89" t="str">
-        <f>Reservas!D9</f>
-        <v>Reserva-0002</v>
-      </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="90"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="81"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="82" t="str">
+        <f>Reservas!D8</f>
+        <v>Reserva-0001</v>
+      </c>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="83"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="74"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92" t="s">
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="86" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="93" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="95" t="s">
+    </row>
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="35" t="s">
+      <c r="C4" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="D4" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="E4" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="F4" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="G4" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="H4" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="I4" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="J4" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="K4" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="L4" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="R4" s="87"/>
+      <c r="S4" s="89"/>
+    </row>
+    <row r="5" spans="1:19" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="77" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="90" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="O4" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="P4" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q4" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="R4" s="94"/>
-      <c r="S4" s="96"/>
-    </row>
-    <row r="5" spans="1:19" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="84" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="97" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="36" t="s">
+      <c r="D5" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="36">
+      <c r="E5" s="35">
         <v>32</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="35">
         <v>32</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36" t="str">
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35" t="str">
         <f>_xlfn.CONCAT(C5,$B$5)</f>
         <v>identificadorAgenda</v>
       </c>
-      <c r="K5" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="L5" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="M5" s="36">
+      <c r="K5" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="35">
         <v>32</v>
       </c>
-      <c r="N5" s="36">
+      <c r="N5" s="35">
         <v>32</v>
       </c>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="47" t="str">
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="46" t="str">
         <f>_xlfn.CONCAT("Atributo que contiene la informacion del identificador de un ",B5,"  en el contexto de ",A5,".")</f>
         <v>Atributo que contiene la informacion del identificador de un Agenda  en el contexto de Conjuntos Residenciales.</v>
       </c>
-      <c r="S5" s="98" t="str">
+      <c r="S5" s="91" t="str">
         <f>B7</f>
         <v>Turno</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="84"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="36" t="s">
+    <row r="6" spans="1:19" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="77"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="36">
+      <c r="E6" s="35">
         <v>1</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="35">
         <v>50</v>
       </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36" t="str">
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35" t="str">
         <f>_xlfn.CONCAT(C6,$B$5)</f>
         <v>nombreAgenda</v>
       </c>
-      <c r="K6" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="L6" s="36" t="s">
+      <c r="K6" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="M6" s="36">
+      <c r="L6" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" s="35">
         <v>1</v>
       </c>
-      <c r="N6" s="36">
+      <c r="N6" s="35">
         <v>50</v>
       </c>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="47" t="str">
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="46" t="str">
         <f>_xlfn.CONCAT("Atributo que contiene la información del nombre de un ",B5," en el contexto de ",A5," asociado al residente con el identificador' ",J6,"'.")</f>
         <v>Atributo que contiene la información del nombre de un Agenda en el contexto de Conjuntos Residenciales asociado al residente con el identificador' nombreAgenda'.</v>
       </c>
-      <c r="S6" s="99"/>
-    </row>
-    <row r="7" spans="1:19" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="84"/>
-      <c r="B7" s="86" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="38" t="s">
+      <c r="S6" s="92"/>
+    </row>
+    <row r="7" spans="1:19" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="77"/>
+      <c r="B7" s="79" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="38">
+      <c r="E7" s="37">
         <v>32</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="37">
         <v>32</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38" t="str">
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37" t="str">
         <f>_xlfn.CONCAT(C5,$B$7)</f>
         <v>identificadorTurno</v>
       </c>
-      <c r="K7" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="L7" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="M7" s="38">
+      <c r="K7" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" s="37">
         <v>32</v>
       </c>
-      <c r="N7" s="38">
+      <c r="N7" s="37">
         <v>32</v>
       </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="48" t="str">
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="47" t="str">
         <f>_xlfn.CONCAT("Atributo que contiene la informacion del identificador de un ",B7,"  en el contexto de ",A5,".")</f>
         <v>Atributo que contiene la informacion del identificador de un Turno  en el contexto de Conjuntos Residenciales.</v>
       </c>
-      <c r="S7" s="99"/>
-    </row>
-    <row r="8" spans="1:19" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="84"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="38" t="s">
+      <c r="S7" s="92"/>
+    </row>
+    <row r="8" spans="1:19" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="77"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="38">
+      <c r="D8" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="37">
         <v>1</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="37">
         <v>50</v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38" t="str">
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37" t="str">
         <f>_xlfn.CONCAT(C6,$B$7)</f>
         <v>nombreTurno</v>
       </c>
-      <c r="K8" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="L8" s="38" t="s">
+      <c r="K8" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="M8" s="38">
+      <c r="L8" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="M8" s="37">
         <v>1</v>
       </c>
-      <c r="N8" s="38">
+      <c r="N8" s="37">
         <v>50</v>
       </c>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="48" t="str">
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="47" t="str">
         <f>_xlfn.CONCAT("Atributo que contiene la información del nombre de un ",B7," en el contexto de ",A5," asociado a la reserva con el identificador' ",J8,"'.")</f>
         <v>Atributo que contiene la información del nombre de un Turno en el contexto de Conjuntos Residenciales asociado a la reserva con el identificador' nombreTurno'.</v>
       </c>
-      <c r="S8" s="99"/>
-    </row>
-    <row r="9" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="84"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="100"/>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="S8" s="92"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="77"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="93"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A5:A9"/>
@@ -3523,391 +4109,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E4C5E7-072D-46C9-A943-F12FD1E94927}">
-  <dimension ref="A1:S10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.7109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="21" style="13" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="58" style="30" customWidth="1"/>
-    <col min="19" max="19" width="17.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="13"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="89" t="str">
-        <f>Reservas!D9</f>
-        <v>Reserva-0002</v>
-      </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="90"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="81"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="93" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="95" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="O4" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="P4" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q4" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="R4" s="94"/>
-      <c r="S4" s="96"/>
-    </row>
-    <row r="5" spans="1:19" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="84" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="97" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="36">
-        <v>32</v>
-      </c>
-      <c r="F5" s="36">
-        <v>32</v>
-      </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36" t="str">
-        <f>_xlfn.CONCAT(C5,$B$5)</f>
-        <v>identificadorConjuntoResidencial</v>
-      </c>
-      <c r="K5" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="L5" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="M5" s="36">
-        <v>32</v>
-      </c>
-      <c r="N5" s="36">
-        <v>32</v>
-      </c>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="47" t="str">
-        <f>_xlfn.CONCAT("Atributo que contiene la informacion del identificador de un ",B5,"  en el contexto de ",A5,".")</f>
-        <v>Atributo que contiene la informacion del identificador de un ConjuntoResidencial  en el contexto de Gestión de Residentes.</v>
-      </c>
-      <c r="S5" s="98" t="str">
-        <f>B7</f>
-        <v>Residente</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="84"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="36">
-        <v>1</v>
-      </c>
-      <c r="F6" s="36">
-        <v>50</v>
-      </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36" t="str">
-        <f>_xlfn.CONCAT(C6,$B$5)</f>
-        <v>nombreConjuntoResidencial</v>
-      </c>
-      <c r="K6" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="L6" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="M6" s="36">
-        <v>1</v>
-      </c>
-      <c r="N6" s="36">
-        <v>50</v>
-      </c>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="47" t="str">
-        <f>_xlfn.CONCAT("Atributo que contiene la información del nombre de un ",B5," en el contexto de ",A5," asociado al residente con el identificador' ",J6,"'.")</f>
-        <v>Atributo que contiene la información del nombre de un ConjuntoResidencial en el contexto de Gestión de Residentes asociado al residente con el identificador' nombreConjuntoResidencial'.</v>
-      </c>
-      <c r="S6" s="99"/>
-    </row>
-    <row r="7" spans="1:19" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="84"/>
-      <c r="B7" s="86" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="38">
-        <v>32</v>
-      </c>
-      <c r="F7" s="38">
-        <v>32</v>
-      </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38" t="str">
-        <f>_xlfn.CONCAT(C5,$B$7)</f>
-        <v>identificadorResidente</v>
-      </c>
-      <c r="K7" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="L7" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="M7" s="38">
-        <v>32</v>
-      </c>
-      <c r="N7" s="38">
-        <v>32</v>
-      </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="48" t="str">
-        <f>_xlfn.CONCAT("Atributo que contiene la informacion del identificador de un ",B7,"  en el contexto de ",A5,".")</f>
-        <v>Atributo que contiene la informacion del identificador de un Residente  en el contexto de Gestión de Residentes.</v>
-      </c>
-      <c r="S7" s="99"/>
-    </row>
-    <row r="8" spans="1:19" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="84"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="38">
-        <v>1</v>
-      </c>
-      <c r="F8" s="38">
-        <v>50</v>
-      </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38" t="str">
-        <f>_xlfn.CONCAT(C6,$B$7)</f>
-        <v>nombreResidente</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="M8" s="38">
-        <v>1</v>
-      </c>
-      <c r="N8" s="38">
-        <v>50</v>
-      </c>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="48" t="str">
-        <f>_xlfn.CONCAT("Atributo que contiene la información del nombre de un ",B7," en el contexto de ",A5," asociado a la reserva con el identificador' ",J8,"'.")</f>
-        <v>Atributo que contiene la información del nombre de un Residente en el contexto de Gestión de Residentes asociado a la reserva con el identificador' nombreResidente'.</v>
-      </c>
-      <c r="S8" s="99"/>
-    </row>
-    <row r="9" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="84"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="100"/>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="S5:S9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B1:S1"/>
-    <mergeCell ref="A2:S2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="J3:Q3"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Doo-Doc/Nueva Version Victus/Modelo de dominio anémico de contextos-VictusResidencias.xlsx
+++ b/Doo-Doc/Nueva Version Victus/Modelo de dominio anémico de contextos-VictusResidencias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/juan_avendano1956_uco_net_co/Documents/Documents/victus-doc/Doo-Doc/Nueva Version Victus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{D3C7ADEF-25B3-46F3-A8C5-B1005FE667E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0ADD31DD-23F5-48CC-9DAE-B0F04C3C67CA}"/>
+  <xr:revisionPtr revIDLastSave="188" documentId="13_ncr:1_{D3C7ADEF-25B3-46F3-A8C5-B1005FE667E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E717521-C916-49EC-85C6-D71755A37924}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="10" xr2:uid="{082AFB46-52C9-4E4C-AE4E-19443AA1B53B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="5" xr2:uid="{082AFB46-52C9-4E4C-AE4E-19443AA1B53B}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="3" r:id="rId1"/>
@@ -18,15 +18,16 @@
     <sheet name="Contextos" sheetId="2" r:id="rId3"/>
     <sheet name="Conjuntos Residenciales" sheetId="4" r:id="rId4"/>
     <sheet name="Residentes" sheetId="5" r:id="rId5"/>
-    <sheet name="Agendas" sheetId="11" r:id="rId6"/>
-    <sheet name="Reservas" sheetId="6" r:id="rId7"/>
-    <sheet name="Reserva-0001" sheetId="8" r:id="rId8"/>
-    <sheet name="Reserva-0002" sheetId="9" r:id="rId9"/>
-    <sheet name="Reserva-0003" sheetId="10" r:id="rId10"/>
-    <sheet name="CaracterizaciónContexto1" sheetId="7" r:id="rId11"/>
+    <sheet name="Residente-Inmueble-0001" sheetId="12" r:id="rId6"/>
+    <sheet name="Agendas" sheetId="11" r:id="rId7"/>
+    <sheet name="Reservas" sheetId="6" r:id="rId8"/>
+    <sheet name="Reserva-0001" sheetId="8" r:id="rId9"/>
+    <sheet name="Reserva-0002" sheetId="9" r:id="rId10"/>
+    <sheet name="Reserva-0003" sheetId="10" r:id="rId11"/>
+    <sheet name="CaracterizaciónContexto1" sheetId="7" r:id="rId12"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="100">
   <si>
     <t>Problema/Dominio:</t>
   </si>
@@ -246,9 +247,6 @@
     <t>Reservas</t>
   </si>
   <si>
-    <t>Gestión de Residentes</t>
-  </si>
-  <si>
     <t>Agenda</t>
   </si>
   <si>
@@ -294,9 +292,6 @@
     <t>Punto de comunicación en intercambio de información para identificar cual es el residente que genera la reserva.</t>
   </si>
   <si>
-    <t>Gestión de Conjuntos residenciales</t>
-  </si>
-  <si>
     <t>agenda</t>
   </si>
   <si>
@@ -331,6 +326,30 @@
   </si>
   <si>
     <t>Punto de comunicación en intercambio de información relacionadas con la Agenda donde pertenece los turnos.</t>
+  </si>
+  <si>
+    <t>fechaHoraInicio</t>
+  </si>
+  <si>
+    <t>NombreAgenda</t>
+  </si>
+  <si>
+    <t>NombreZonaComun</t>
+  </si>
+  <si>
+    <t>IdentificadorZonaComun</t>
+  </si>
+  <si>
+    <t>Atributo que contiene la información del identificador de una zona común en el contexto de Conjuntos Residenciales</t>
+  </si>
+  <si>
+    <t>tipoInmueble</t>
+  </si>
+  <si>
+    <t>numeroVivienda</t>
+  </si>
+  <si>
+    <t>Entero</t>
   </si>
 </sst>
 </file>
@@ -383,7 +402,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,8 +469,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -714,23 +739,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -745,17 +757,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -811,14 +812,115 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -876,7 +978,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -933,7 +1035,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -945,7 +1047,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -954,64 +1056,121 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1056,12 +1215,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1089,13 +1242,13 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1110,70 +1263,60 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink" xfId="2" xr:uid="{8FDECE4D-63E2-4AC6-9EB4-EA06824A0A72}"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1311,7 +1454,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1633,103 +1776,103 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.44140625" style="2"/>
+    <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="49"/>
+      <c r="B1" s="57"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="40" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="42" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="41" t="s">
+    <row r="9" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="43" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="42" t="s">
+    <row r="10" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="42" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="41" t="s">
+    <row r="11" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="42" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="41" t="s">
+    <row r="12" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="42" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="41" t="s">
+    <row r="13" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="42" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1741,373 +1884,760 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC2EBB7-5669-4BC7-8C4D-6FF94FADDE33}">
+  <dimension ref="A1:S10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="21" style="14" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="58" style="31" customWidth="1"/>
+    <col min="19" max="19" width="17.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="100" t="str">
+        <f>Reservas!D8</f>
+        <v>Reserva-0001</v>
+      </c>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="101"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="92"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="94"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="102" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="106" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="R4" s="105"/>
+      <c r="S4" s="107"/>
+    </row>
+    <row r="5" spans="1:19" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="97" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="108" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="36">
+        <v>32</v>
+      </c>
+      <c r="F5" s="36">
+        <v>32</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36" t="str">
+        <f>_xlfn.CONCAT(C5,$B$5)</f>
+        <v>identificadorAgenda</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="36">
+        <v>32</v>
+      </c>
+      <c r="N5" s="36">
+        <v>32</v>
+      </c>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="47" t="str">
+        <f>_xlfn.CONCAT("Atributo que contiene la informacion del identificador de un ",B5,"  en el contexto de ",A5,".")</f>
+        <v>Atributo que contiene la informacion del identificador de un Agenda  en el contexto de Conjuntos Residenciales.</v>
+      </c>
+      <c r="S5" s="109" t="str">
+        <f>B7</f>
+        <v>Turno</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="97"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="36">
+        <v>1</v>
+      </c>
+      <c r="F6" s="36">
+        <v>50</v>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36" t="str">
+        <f>_xlfn.CONCAT(C6,$B$5)</f>
+        <v>nombreAgenda</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" s="36">
+        <v>1</v>
+      </c>
+      <c r="N6" s="36">
+        <v>50</v>
+      </c>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="47" t="str">
+        <f>_xlfn.CONCAT("Atributo que contiene la información del nombre de un ",B5," en el contexto de ",A5," asociado al residente con el identificador' ",J6,"'.")</f>
+        <v>Atributo que contiene la información del nombre de un Agenda en el contexto de Conjuntos Residenciales asociado al residente con el identificador' nombreAgenda'.</v>
+      </c>
+      <c r="S6" s="110"/>
+    </row>
+    <row r="7" spans="1:19" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="97"/>
+      <c r="B7" s="99" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="38">
+        <v>32</v>
+      </c>
+      <c r="F7" s="38">
+        <v>32</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38" t="str">
+        <f>_xlfn.CONCAT(C5,$B$7)</f>
+        <v>identificadorTurno</v>
+      </c>
+      <c r="K7" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" s="38">
+        <v>32</v>
+      </c>
+      <c r="N7" s="38">
+        <v>32</v>
+      </c>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="48" t="str">
+        <f>_xlfn.CONCAT("Atributo que contiene la informacion del identificador de un ",B7,"  en el contexto de ",A5,".")</f>
+        <v>Atributo que contiene la informacion del identificador de un Turno  en el contexto de Conjuntos Residenciales.</v>
+      </c>
+      <c r="S7" s="110"/>
+    </row>
+    <row r="8" spans="1:19" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="97"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="38">
+        <v>1</v>
+      </c>
+      <c r="F8" s="38">
+        <v>50</v>
+      </c>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38" t="str">
+        <f>_xlfn.CONCAT(C6,$B$7)</f>
+        <v>nombreTurno</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="M8" s="38">
+        <v>1</v>
+      </c>
+      <c r="N8" s="38">
+        <v>50</v>
+      </c>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="48" t="str">
+        <f>_xlfn.CONCAT("Atributo que contiene la información del nombre de un ",B7," en el contexto de ",A5," asociado a la reserva con el identificador' ",J8,"'.")</f>
+        <v>Atributo que contiene la información del nombre de un Turno en el contexto de Conjuntos Residenciales asociado a la reserva con el identificador' nombreTurno'.</v>
+      </c>
+      <c r="S8" s="110"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="97"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="111"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="S5:S9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="J3:Q3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E4C5E7-072D-46C9-A943-F12FD1E94927}">
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="B1" sqref="B1:S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="21" style="13" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="58" style="30" customWidth="1"/>
-    <col min="19" max="19" width="17.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.44140625" style="13"/>
+    <col min="1" max="1" width="14.6640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="21" style="14" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="58" style="31" customWidth="1"/>
+    <col min="19" max="19" width="17.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="82" t="str">
+      <c r="B1" s="100" t="str">
         <f>Reservas!D8</f>
         <v>Reserva-0001</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="83"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="101"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="72"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="74"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="94"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85" t="s">
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="86" t="s">
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="S3" s="88" t="s">
+      <c r="S3" s="106" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="K4" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="L4" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="M4" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="N4" s="34" t="s">
+      <c r="N4" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="34" t="s">
+      <c r="O4" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="P4" s="34" t="s">
+      <c r="P4" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="Q4" s="34" t="s">
+      <c r="Q4" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="R4" s="87"/>
-      <c r="S4" s="89"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="107"/>
     </row>
     <row r="5" spans="1:19" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="77" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="90" t="s">
+      <c r="A5" s="97" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="36">
         <v>32</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="36">
         <v>32</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35" t="str">
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36" t="str">
         <f>_xlfn.CONCAT(C5,$B$5)</f>
         <v>identificadorConjuntoResidencial</v>
       </c>
-      <c r="K5" s="35" t="s">
+      <c r="K5" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="L5" s="35" t="s">
+      <c r="L5" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="35">
+      <c r="M5" s="36">
         <v>32</v>
       </c>
-      <c r="N5" s="35">
+      <c r="N5" s="36">
         <v>32</v>
       </c>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="46" t="str">
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="47" t="str">
         <f>_xlfn.CONCAT("Atributo que contiene la informacion del identificador de un ",B5,"  en el contexto de ",A5,".")</f>
-        <v>Atributo que contiene la informacion del identificador de un ConjuntoResidencial  en el contexto de Gestión de Residentes.</v>
-      </c>
-      <c r="S5" s="91" t="str">
+        <v>Atributo que contiene la informacion del identificador de un ConjuntoResidencial  en el contexto de Residentes.</v>
+      </c>
+      <c r="S5" s="109" t="str">
         <f>B7</f>
         <v>Residente</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="77"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="35" t="s">
+    <row r="6" spans="1:19" ht="58.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="97"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="36">
         <v>1</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="36">
         <v>50</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35" t="str">
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36" t="str">
         <f>_xlfn.CONCAT(C6,$B$5)</f>
         <v>nombreConjuntoResidencial</v>
       </c>
-      <c r="K6" s="35" t="s">
+      <c r="K6" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="L6" s="35" t="s">
+      <c r="L6" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="M6" s="35">
+      <c r="M6" s="36">
         <v>1</v>
       </c>
-      <c r="N6" s="35">
+      <c r="N6" s="36">
         <v>50</v>
       </c>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="46" t="str">
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="47" t="str">
         <f>_xlfn.CONCAT("Atributo que contiene la información del nombre de un ",B5," en el contexto de ",A5," asociado al residente con el identificador' ",J6,"'.")</f>
-        <v>Atributo que contiene la información del nombre de un ConjuntoResidencial en el contexto de Gestión de Residentes asociado al residente con el identificador' nombreConjuntoResidencial'.</v>
-      </c>
-      <c r="S6" s="92"/>
+        <v>Atributo que contiene la información del nombre de un ConjuntoResidencial en el contexto de Residentes asociado al residente con el identificador' nombreConjuntoResidencial'.</v>
+      </c>
+      <c r="S6" s="110"/>
     </row>
     <row r="7" spans="1:19" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="77"/>
-      <c r="B7" s="79" t="s">
+      <c r="A7" s="97"/>
+      <c r="B7" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="38">
         <v>32</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="38">
         <v>32</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37" t="str">
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38" t="str">
         <f>_xlfn.CONCAT(C5,$B$7)</f>
         <v>identificadorResidente</v>
       </c>
-      <c r="K7" s="37" t="s">
+      <c r="K7" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="37" t="s">
+      <c r="L7" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="M7" s="37">
+      <c r="M7" s="38">
         <v>32</v>
       </c>
-      <c r="N7" s="37">
+      <c r="N7" s="38">
         <v>32</v>
       </c>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="47" t="str">
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="48" t="str">
         <f>_xlfn.CONCAT("Atributo que contiene la informacion del identificador de un ",B7,"  en el contexto de ",A5,".")</f>
-        <v>Atributo que contiene la informacion del identificador de un Residente  en el contexto de Gestión de Residentes.</v>
-      </c>
-      <c r="S7" s="92"/>
+        <v>Atributo que contiene la informacion del identificador de un Residente  en el contexto de Residentes.</v>
+      </c>
+      <c r="S7" s="110"/>
     </row>
     <row r="8" spans="1:19" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="77"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="37" t="s">
+      <c r="A8" s="97"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="38">
         <v>1</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="38">
         <v>50</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37" t="str">
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38" t="str">
         <f>_xlfn.CONCAT(C6,$B$7)</f>
         <v>nombreResidente</v>
       </c>
-      <c r="K8" s="37" t="s">
+      <c r="K8" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="L8" s="37" t="s">
+      <c r="L8" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="M8" s="37">
+      <c r="M8" s="38">
         <v>1</v>
       </c>
-      <c r="N8" s="37">
+      <c r="N8" s="38">
         <v>50</v>
       </c>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="47" t="str">
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="48" t="str">
         <f>_xlfn.CONCAT("Atributo que contiene la información del nombre de un ",B7," en el contexto de ",A5," asociado a la reserva con el identificador' ",J8,"'.")</f>
-        <v>Atributo que contiene la información del nombre de un Residente en el contexto de Gestión de Residentes asociado a la reserva con el identificador' nombreResidente'.</v>
-      </c>
-      <c r="S8" s="92"/>
+        <v>Atributo que contiene la información del nombre de un Residente en el contexto de Residentes asociado a la reserva con el identificador' nombreResidente'.</v>
+      </c>
+      <c r="S8" s="110"/>
     </row>
     <row r="9" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="77"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="93"/>
+      <c r="A9" s="97"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="111"/>
     </row>
     <row r="10" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -2127,191 +2657,191 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA574C3-CD54-44A7-8A00-D1CB8315B9A2}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="58" style="30" customWidth="1"/>
-    <col min="19" max="19" width="17.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.44140625" style="13"/>
+    <col min="1" max="1" width="12.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="58" style="31" customWidth="1"/>
+    <col min="19" max="19" width="17.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="94">
+      <c r="B1" s="112">
         <f>'[1]Configuración Apuestas'!D10</f>
         <v>0</v>
       </c>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="95"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="113"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="74"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="94"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85" t="s">
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="86" t="s">
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="S3" s="88" t="s">
+      <c r="S3" s="106" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="16" t="s">
+      <c r="O4" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="Q4" s="16" t="s">
+      <c r="Q4" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="R4" s="96"/>
-      <c r="S4" s="97"/>
+      <c r="R4" s="114"/>
+      <c r="S4" s="115"/>
     </row>
     <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="29"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2334,7 +2864,7 @@
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2349,191 +2879,191 @@
       <selection activeCell="B12" sqref="B12:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="22.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.6640625" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="2"/>
+    <col min="1" max="1" width="36.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.6640625" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="54"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="68"/>
     </row>
     <row r="2" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="71"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="74"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="79" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="77"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="79"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="77"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="79"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="77"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="65" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="63"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="31" t="s">
+      <c r="D8" s="79"/>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="77"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="79"/>
+    </row>
+    <row r="10" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="75" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="75"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="75"/>
+    </row>
+    <row r="12" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="65"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="63"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="65"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="63"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="65"/>
-    </row>
-    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="63"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="31" t="s">
+      <c r="D12" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="65"/>
-    </row>
-    <row r="10" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="61" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="84"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="84"/>
+    </row>
+    <row r="14" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="85"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="85"/>
+    </row>
+    <row r="15" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="32" t="s">
+      <c r="B15" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="59"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="65"/>
+    </row>
+    <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="59"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="65"/>
+    </row>
+    <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="60"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="61" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="61"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="61"/>
-    </row>
-    <row r="12" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="108" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51"/>
-      <c r="B13" s="109"/>
-      <c r="C13" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="51"/>
-    </row>
-    <row r="14" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="52"/>
-      <c r="B14" s="110"/>
-      <c r="C14" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="52"/>
-    </row>
-    <row r="15" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="98" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="99" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="100" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="101" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="102"/>
-      <c r="B16" s="103"/>
-      <c r="C16" s="100" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="104"/>
-    </row>
-    <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="102"/>
-      <c r="B17" s="103"/>
-      <c r="C17" s="100" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="104"/>
-    </row>
-    <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="105"/>
-      <c r="B18" s="106"/>
-      <c r="C18" s="100" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="107"/>
+      <c r="D18" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2586,200 +3116,200 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="38.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="64" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.44140625" style="13"/>
+    <col min="1" max="1" width="19.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="38.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.44140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="66" t="str">
+      <c r="B1" s="86" t="str">
         <f>Contextos!B5</f>
         <v xml:space="preserve"> Conjuntos residenciales</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="67"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="87"/>
     </row>
     <row r="2" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="68" t="str">
+      <c r="B2" s="88" t="str">
         <f>Contextos!D5</f>
         <v>Contexto cuya motivación es Gestionar la estructura física y los recursos disponibles en cada conjunto residencial. Aquí se manejan los datos sobre qué conjuntos existen, dónde están ubicados, qué recursos ofrecen según una Agenda con respectivos turnos para cada zona.</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="69"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="89"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="70" t="str">
+      <c r="B3" s="90" t="str">
         <f>Contextos!A5</f>
         <v>Core/Básico</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="71"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="91"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="74"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="94"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="76" t="s">
+      <c r="E5" s="95"/>
+      <c r="F5" s="96" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="76"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="96"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="16" t="s">
+      <c r="C7" s="95"/>
+      <c r="D7" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="76"/>
+      <c r="F7" s="96"/>
     </row>
     <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="24" t="s">
+      <c r="B8" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="113" t="str">
+      <c r="D8" s="52" t="str">
         <f>B8&amp;" "&amp;A8&amp;"-0001"</f>
         <v>Administrador Conjunto Residencial-0001</v>
       </c>
-      <c r="E8" s="45" t="str">
+      <c r="E8" s="46" t="str">
         <f>_xlfn.CONCAT(A8," de ",B8)</f>
         <v>Conjunto Residencial de Administrador</v>
       </c>
-      <c r="F8" s="25" t="s">
-        <v>78</v>
+      <c r="F8" s="26" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="43" t="str">
+      <c r="D9" s="44" t="str">
         <f>B9&amp;" "&amp;A9&amp;"-0001"</f>
         <v>ZonaComun Conjunto Residencial-0001</v>
       </c>
-      <c r="E9" s="44" t="str">
+      <c r="E9" s="45" t="str">
         <f>_xlfn.CONCAT(A9," de ",B9)</f>
         <v>Conjunto Residencial de ZonaComun</v>
       </c>
-      <c r="F9" s="22" t="s">
-        <v>77</v>
+      <c r="F9" s="23" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="111" t="s">
+      <c r="A10" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="111" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="112" t="s">
+      <c r="B10" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="113" t="str">
+      <c r="D10" s="52" t="str">
         <f>B10&amp;" "&amp;A10&amp;"-0001"</f>
         <v>ZonaInmueble Conjunto Residencial-0001</v>
       </c>
-      <c r="E10" s="114" t="str">
+      <c r="E10" s="53" t="str">
         <f>_xlfn.CONCAT(A10," de ",B10)</f>
         <v>Conjunto Residencial de ZonaInmueble</v>
       </c>
-      <c r="F10" s="115" t="s">
-        <v>89</v>
+      <c r="F10" s="54" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="19" t="s">
+      <c r="A11" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="43" t="str">
+      <c r="D11" s="44" t="str">
         <f t="shared" ref="D11" si="0">B11&amp;" "&amp;A11&amp;"-0001"</f>
         <v>Inmueble ZonaInmueble-0001</v>
       </c>
-      <c r="E11" s="44" t="str">
+      <c r="E11" s="45" t="str">
         <f t="shared" ref="E11" si="1">_xlfn.CONCAT(A11," de ",B11)</f>
         <v>ZonaInmueble de Inmueble</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>90</v>
+      <c r="F11" s="23" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2816,132 +3346,132 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="64" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.44140625" style="13"/>
+    <col min="1" max="1" width="19.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.44140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="66" t="str">
+      <c r="B1" s="86" t="str">
         <f>Contextos!B10</f>
         <v>Residentes</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="67"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="87"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="68" t="str">
+      <c r="B2" s="88" t="str">
         <f>Contextos!D10</f>
         <v>Contexto cuya motivación es encargarce de manejar la información de los residentes, incluidas sus identificaciones, contacto, y la relación entre el residente y su residencia dentro del conjunto.</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="69"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="89"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="70" t="str">
+      <c r="B3" s="90" t="str">
         <f>Contextos!A10</f>
         <v>Core/Básico</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="71"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="91"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="74"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="94"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="76" t="s">
+      <c r="E5" s="95"/>
+      <c r="F5" s="96" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="76"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="96"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="16" t="s">
+      <c r="C7" s="95"/>
+      <c r="D7" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="76"/>
+      <c r="F7" s="96"/>
     </row>
     <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="20" t="str">
+      <c r="D8" s="21" t="str">
         <f>B8&amp;" "&amp;A8&amp;"-0001"</f>
         <v>Residente Inmueble-0001</v>
       </c>
-      <c r="E8" s="21" t="str">
+      <c r="E8" s="22" t="str">
         <f>_xlfn.CONCAT(A8," de ",B8)</f>
         <v>Inmueble de Residente</v>
       </c>
-      <c r="F8" s="22" t="s">
-        <v>91</v>
+      <c r="F8" s="23" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2971,6 +3501,538 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59635CF3-0DE6-45E6-A198-1E7042F5E8F9}">
+  <dimension ref="A1:S14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="58" style="31" customWidth="1"/>
+    <col min="19" max="19" width="17.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="100" t="str">
+        <f>Residentes!D8</f>
+        <v>Residente Inmueble-0001</v>
+      </c>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="101"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="92"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="94"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="102" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="106" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="R4" s="114"/>
+      <c r="S4" s="107"/>
+    </row>
+    <row r="5" spans="1:19" ht="28.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="116" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="123" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="125" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="125" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="125">
+        <v>32</v>
+      </c>
+      <c r="F5" s="125">
+        <v>32</v>
+      </c>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" s="125" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="125" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="125">
+        <v>32</v>
+      </c>
+      <c r="N5" s="125">
+        <v>32</v>
+      </c>
+      <c r="O5" s="125"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="125"/>
+      <c r="R5" s="127" t="s">
+        <v>96</v>
+      </c>
+      <c r="S5" s="129" t="str">
+        <f>B11</f>
+        <v>ConjuntoResidencial</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="28.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="117"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="125" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="125" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="125">
+        <v>1</v>
+      </c>
+      <c r="F6" s="125">
+        <v>50</v>
+      </c>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="125"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="125"/>
+      <c r="P6" s="125"/>
+      <c r="Q6" s="125"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="130"/>
+    </row>
+    <row r="7" spans="1:19" ht="30.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="117"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="125" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="125" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="125">
+        <v>1</v>
+      </c>
+      <c r="F7" s="125">
+        <v>20000</v>
+      </c>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="125" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" s="125" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="125" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" s="125">
+        <v>1</v>
+      </c>
+      <c r="N7" s="125">
+        <v>150</v>
+      </c>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="128"/>
+      <c r="S7" s="130"/>
+    </row>
+    <row r="8" spans="1:19" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="117"/>
+      <c r="B8" s="119" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="120" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="36">
+        <v>32</v>
+      </c>
+      <c r="F8" s="36">
+        <v>32</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36" t="str">
+        <f>_xlfn.CONCAT(C8,$B$8)</f>
+        <v>identificadorZonaInmueble</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8" s="36">
+        <v>32</v>
+      </c>
+      <c r="N8" s="36">
+        <v>32</v>
+      </c>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="47" t="str">
+        <f>_xlfn.CONCAT("Atributo que contiene la informacion del identificador de un ",B8,"  en el contexto de ",A5,".")</f>
+        <v>Atributo que contiene la informacion del identificador de un ZonaInmueble  en el contexto de Conjuntos Residenciales.</v>
+      </c>
+      <c r="S8" s="130"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="117"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="120" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="36">
+        <v>1</v>
+      </c>
+      <c r="F9" s="36">
+        <v>150</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="130"/>
+    </row>
+    <row r="10" spans="1:19" ht="58.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="117"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="36">
+        <v>1</v>
+      </c>
+      <c r="F10" s="36">
+        <v>50</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36" t="str">
+        <f>_xlfn.CONCAT(C10,$B$8)</f>
+        <v>fechaHoraInicioZonaInmueble</v>
+      </c>
+      <c r="K10" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10" s="36">
+        <v>1</v>
+      </c>
+      <c r="N10" s="36">
+        <v>50</v>
+      </c>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="47" t="str">
+        <f>_xlfn.CONCAT("Atributo que contiene la información del nombre de un ",B8," en el contexto de ",A5," asociado al residente con el identificador' ",J10,"'.")</f>
+        <v>Atributo que contiene la información del nombre de un ZonaInmueble en el contexto de Conjuntos Residenciales asociado al residente con el identificador' fechaHoraInicioZonaInmueble'.</v>
+      </c>
+      <c r="S10" s="130"/>
+    </row>
+    <row r="11" spans="1:19" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="117"/>
+      <c r="B11" s="99" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="38">
+        <v>32</v>
+      </c>
+      <c r="F11" s="38">
+        <v>32</v>
+      </c>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38" t="str">
+        <f>_xlfn.CONCAT(C8,$B$11)</f>
+        <v>identificadorConjuntoResidencial</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" s="38">
+        <v>32</v>
+      </c>
+      <c r="N11" s="38">
+        <v>32</v>
+      </c>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="48" t="str">
+        <f>_xlfn.CONCAT("Atributo que contiene la informacion del identificador de un ",B11,"  en el contexto de ",A5,".")</f>
+        <v>Atributo que contiene la informacion del identificador de un ConjuntoResidencial  en el contexto de Conjuntos Residenciales.</v>
+      </c>
+      <c r="S11" s="130"/>
+    </row>
+    <row r="12" spans="1:19" ht="58.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="117"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="38">
+        <v>1</v>
+      </c>
+      <c r="F12" s="38">
+        <v>50</v>
+      </c>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38" t="str">
+        <f>_xlfn.CONCAT(C10,$B$11)</f>
+        <v>fechaHoraInicioConjuntoResidencial</v>
+      </c>
+      <c r="K12" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" s="38">
+        <v>1</v>
+      </c>
+      <c r="N12" s="38">
+        <v>50</v>
+      </c>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="48" t="str">
+        <f>_xlfn.CONCAT("Atributo que contiene la información del nombre de un ",B11," en el contexto de ",A5," asociado a la reserva con el identificador' ",J12,"'.")</f>
+        <v>Atributo que contiene la información del nombre de un ConjuntoResidencial en el contexto de Conjuntos Residenciales asociado a la reserva con el identificador' fechaHoraInicioConjuntoResidencial'.</v>
+      </c>
+      <c r="S12" s="130"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="118"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="131"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="S5:S13"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="J3:Q3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA1C796-BDF1-44E4-8EC8-5B53FD905390}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -2978,153 +4040,153 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="38.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="64" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.44140625" style="13"/>
+    <col min="1" max="1" width="19.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="38.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.44140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="66" t="str">
+      <c r="B1" s="86" t="str">
         <f>Contextos!B12</f>
         <v>Agendas</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="67"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="87"/>
     </row>
     <row r="2" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="68" t="str">
+      <c r="B2" s="88" t="str">
         <f>Contextos!D12</f>
         <v>Contexto cuya motivación es la de gestionar la estructura de la agenda que va a tener una zona común durante un un tiempo estimado y sus diferentes turnos.</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="69"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="89"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="70" t="str">
+      <c r="B3" s="90" t="str">
         <f>Contextos!A12</f>
         <v>Core/Básico</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="71"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="91"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="74"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="94"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="76" t="s">
+      <c r="E5" s="95"/>
+      <c r="F5" s="96" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="76"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="96"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="16" t="s">
+      <c r="C7" s="95"/>
+      <c r="D7" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="76"/>
+      <c r="F7" s="96"/>
     </row>
     <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="24" t="s">
+      <c r="B8" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="113" t="str">
+      <c r="D8" s="52" t="str">
         <f>B8&amp;" "&amp;A8&amp;"-0001"</f>
         <v>Agenda ZonaComun-0001</v>
       </c>
-      <c r="E8" s="45" t="str">
+      <c r="E8" s="46" t="str">
         <f>_xlfn.CONCAT(A8," de ",B8)</f>
         <v>ZonaComun de Agenda</v>
       </c>
-      <c r="F8" s="25" t="s">
-        <v>92</v>
+      <c r="F8" s="26" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="43" t="str">
+      <c r="D9" s="44" t="str">
         <f>B9&amp;" "&amp;A9&amp;"-0001"</f>
         <v>Turno Agenda-0001</v>
       </c>
-      <c r="E9" s="44" t="str">
+      <c r="E9" s="45" t="str">
         <f>_xlfn.CONCAT(A9," de ",B9)</f>
         <v>Agenda de Turno</v>
       </c>
-      <c r="F9" s="22" t="s">
-        <v>93</v>
+      <c r="F9" s="23" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3153,162 +4215,162 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C088BE7-88A8-46E0-AF18-6F40B3F602F8}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="64" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.44140625" style="13"/>
+    <col min="1" max="1" width="19.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.44140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="66" t="str">
+      <c r="B1" s="86" t="str">
         <f>Contextos!B15</f>
         <v>Reservas</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="67"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="87"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="68" t="str">
+      <c r="B2" s="88" t="str">
         <f>Contextos!D15</f>
         <v>Contexto cuya intención enfocarse en la gestión del proceso de reservas de los recursos, incluyendo la disponibilidad de los recursos y las reservas que los residentes realizan.</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="69"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="89"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="70" t="str">
+      <c r="B3" s="90" t="str">
         <f>Contextos!A15</f>
         <v>Core/Básico</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="71"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="91"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="74"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="94"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="76" t="s">
+      <c r="E5" s="95"/>
+      <c r="F5" s="96" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="76"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="96"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="16" t="s">
+      <c r="C7" s="95"/>
+      <c r="D7" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="76"/>
+      <c r="F7" s="96"/>
     </row>
     <row r="8" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="116" t="str">
+      <c r="D8" s="55" t="str">
         <f>B8&amp;"-0001"</f>
         <v>Reserva-0001</v>
       </c>
-      <c r="E8" s="117" t="str">
+      <c r="E8" s="56" t="str">
         <f t="shared" ref="E8:E9" si="0">_xlfn.CONCAT(A8," de ",B8)</f>
         <v>Turno de Reserva</v>
       </c>
-      <c r="F8" s="25" t="s">
-        <v>79</v>
+      <c r="F8" s="26" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="20" t="str">
+      <c r="D9" s="21" t="str">
         <f>B9&amp;"-0002"</f>
         <v>Reserva-0002</v>
       </c>
-      <c r="E9" s="21" t="str">
+      <c r="E9" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Residente de Reserva</v>
       </c>
-      <c r="F9" s="22" t="s">
-        <v>80</v>
+      <c r="F9" s="23" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3337,775 +4399,504 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3888799-E6A1-4FAB-A09B-AF9FE652AF52}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="58" style="30" customWidth="1"/>
-    <col min="19" max="19" width="17.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.44140625" style="13"/>
+    <col min="1" max="1" width="12.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="58" style="31" customWidth="1"/>
+    <col min="19" max="19" width="17.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="82" t="e">
+      <c r="B1" s="100" t="e">
         <f>Reservas!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="83"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="101"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="72"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="74"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="94"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85" t="s">
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="86" t="s">
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="S3" s="88" t="s">
+      <c r="S3" s="106" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="K4" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="L4" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="M4" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="N4" s="34" t="s">
+      <c r="N4" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="34" t="s">
+      <c r="O4" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="P4" s="34" t="s">
+      <c r="P4" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="Q4" s="34" t="s">
+      <c r="Q4" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="R4" s="87"/>
-      <c r="S4" s="89"/>
-    </row>
-    <row r="5" spans="1:19" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="78" t="s">
+      <c r="R4" s="114"/>
+      <c r="S4" s="115"/>
+    </row>
+    <row r="5" spans="1:19" ht="28.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="116" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="123" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="125" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="125" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="125">
+        <v>32</v>
+      </c>
+      <c r="F5" s="125">
+        <v>32</v>
+      </c>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" s="125" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="125" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="125">
+        <v>32</v>
+      </c>
+      <c r="N5" s="125">
+        <v>32</v>
+      </c>
+      <c r="O5" s="125"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="125"/>
+      <c r="R5" s="126" t="s">
+        <v>96</v>
+      </c>
+      <c r="S5" s="121" t="str">
+        <f>B10</f>
+        <v>Turno</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="30.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="117"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="125" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="125" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="125">
+        <v>1</v>
+      </c>
+      <c r="F6" s="125">
+        <v>150</v>
+      </c>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" s="125" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="125" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" s="125">
+        <v>1</v>
+      </c>
+      <c r="N6" s="125">
+        <v>150</v>
+      </c>
+      <c r="O6" s="125"/>
+      <c r="P6" s="125"/>
+      <c r="Q6" s="125"/>
+      <c r="R6" s="125"/>
+      <c r="S6" s="122"/>
+    </row>
+    <row r="7" spans="1:19" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="117"/>
+      <c r="B7" s="119" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="120" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="36">
+        <v>32</v>
+      </c>
+      <c r="F7" s="36">
+        <v>32</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36" t="str">
+        <f>_xlfn.CONCAT(C7,$B$7)</f>
+        <v>identificadorAgenda</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" s="36">
+        <v>32</v>
+      </c>
+      <c r="N7" s="36">
+        <v>32</v>
+      </c>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="37" t="str">
+        <f>_xlfn.CONCAT("Atributo que contiene la informacion del identificador de un ",B7,"  en el contexto de ",A5,".")</f>
+        <v>Atributo que contiene la informacion del identificador de un Agenda  en el contexto de Agendas.</v>
+      </c>
+      <c r="S7" s="122"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="117"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="120" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="36">
+        <v>1</v>
+      </c>
+      <c r="F8" s="36">
+        <v>150</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="122"/>
+    </row>
+    <row r="9" spans="1:19" ht="58.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="117"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="36">
+        <v>1</v>
+      </c>
+      <c r="F9" s="36">
+        <v>50</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36" t="str">
+        <f>_xlfn.CONCAT(C9,$B$7)</f>
+        <v>fechaHoraInicioAgenda</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" s="36">
+        <v>1</v>
+      </c>
+      <c r="N9" s="36">
+        <v>50</v>
+      </c>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="37" t="str">
+        <f>_xlfn.CONCAT("Atributo que contiene la información del nombre de un ",B7," en el contexto de ",A5," asociado al residente con el identificador' ",J9,"'.")</f>
+        <v>Atributo que contiene la información del nombre de un Agenda en el contexto de Agendas asociado al residente con el identificador' fechaHoraInicioAgenda'.</v>
+      </c>
+      <c r="S9" s="122"/>
+    </row>
+    <row r="10" spans="1:19" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="117"/>
+      <c r="B10" s="99" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="38">
+        <v>32</v>
+      </c>
+      <c r="F10" s="38">
+        <v>32</v>
+      </c>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38" t="str">
+        <f>_xlfn.CONCAT(C7,$B$10)</f>
+        <v>identificadorTurno</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="38">
+        <v>32</v>
+      </c>
+      <c r="N10" s="38">
+        <v>32</v>
+      </c>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="39" t="str">
+        <f>_xlfn.CONCAT("Atributo que contiene la informacion del identificador de un ",B10,"  en el contexto de ",A5,".")</f>
+        <v>Atributo que contiene la informacion del identificador de un Turno  en el contexto de Agendas.</v>
+      </c>
+      <c r="S10" s="122"/>
+    </row>
+    <row r="11" spans="1:19" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="117"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="38">
+        <v>1</v>
+      </c>
+      <c r="F11" s="38">
+        <v>50</v>
+      </c>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38" t="str">
+        <f>_xlfn.CONCAT(C9,$B$10)</f>
+        <v>fechaHoraInicioTurno</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="M11" s="38">
+        <v>1</v>
+      </c>
+      <c r="N11" s="38">
+        <v>50</v>
+      </c>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="39" t="str">
+        <f>_xlfn.CONCAT("Atributo que contiene la información del nombre de un ",B10," en el contexto de ",A5," asociado a la reserva con el identificador' ",J11,"'.")</f>
+        <v>Atributo que contiene la información del nombre de un Turno en el contexto de Agendas asociado a la reserva con el identificador' fechaHoraInicioTurno'.</v>
+      </c>
+      <c r="S11" s="122"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="118"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="35">
-        <v>32</v>
-      </c>
-      <c r="F5" s="35">
-        <v>32</v>
-      </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35" t="str">
-        <f>_xlfn.CONCAT(C5,$B$5)</f>
-        <v>identificadorConjuntoResidencial</v>
-      </c>
-      <c r="K5" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="L5" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="M5" s="35">
-        <v>32</v>
-      </c>
-      <c r="N5" s="35">
-        <v>32</v>
-      </c>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="36" t="str">
-        <f>_xlfn.CONCAT("Atributo que contiene la informacion del identificador de un ",B5,"  en el contexto de ",A5,".")</f>
-        <v>Atributo que contiene la informacion del identificador de un ConjuntoResidencial  en el contexto de Gestión de Conjuntos residenciales.</v>
-      </c>
-      <c r="S5" s="80" t="str">
-        <f>B7</f>
-        <v>ZonaComun</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="58.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="77"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="35">
-        <v>1</v>
-      </c>
-      <c r="F6" s="35">
-        <v>50</v>
-      </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35" t="str">
-        <f>_xlfn.CONCAT(C6,$B$5)</f>
-        <v>nombreConjuntoResidencial</v>
-      </c>
-      <c r="K6" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="L6" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="M6" s="35">
-        <v>1</v>
-      </c>
-      <c r="N6" s="35">
-        <v>50</v>
-      </c>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="36" t="str">
-        <f>_xlfn.CONCAT("Atributo que contiene la información del nombre de un ",B5," en el contexto de ",A5," asociado al residente con el identificador' ",J6,"'.")</f>
-        <v>Atributo que contiene la información del nombre de un ConjuntoResidencial en el contexto de Gestión de Conjuntos residenciales asociado al residente con el identificador' nombreConjuntoResidencial'.</v>
-      </c>
-      <c r="S6" s="81"/>
-    </row>
-    <row r="7" spans="1:19" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="77"/>
-      <c r="B7" s="79" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="37">
-        <v>32</v>
-      </c>
-      <c r="F7" s="37">
-        <v>32</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37" t="str">
-        <f>_xlfn.CONCAT(C5,$B$7)</f>
-        <v>identificadorZonaComun</v>
-      </c>
-      <c r="K7" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="M7" s="37">
-        <v>32</v>
-      </c>
-      <c r="N7" s="37">
-        <v>32</v>
-      </c>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="38" t="str">
-        <f>_xlfn.CONCAT("Atributo que contiene la informacion del identificador de un ",B7,"  en el contexto de ",A5,".")</f>
-        <v>Atributo que contiene la informacion del identificador de un ZonaComun  en el contexto de Gestión de Conjuntos residenciales.</v>
-      </c>
-      <c r="S7" s="81"/>
-    </row>
-    <row r="8" spans="1:19" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="77"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="37">
-        <v>1</v>
-      </c>
-      <c r="F8" s="37">
-        <v>50</v>
-      </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37" t="str">
-        <f>_xlfn.CONCAT(C6,$B$7)</f>
-        <v>nombreZonaComun</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="M8" s="37">
-        <v>1</v>
-      </c>
-      <c r="N8" s="37">
-        <v>50</v>
-      </c>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="38" t="str">
-        <f>_xlfn.CONCAT("Atributo que contiene la información del nombre de un ",B7," en el contexto de ",A5," asociado a la reserva con el identificador' ",J8,"'.")</f>
-        <v>Atributo que contiene la información del nombre de un ZonaComun en el contexto de Gestión de Conjuntos residenciales asociado a la reserva con el identificador' nombreZonaComun'.</v>
-      </c>
-      <c r="S8" s="81"/>
-    </row>
-    <row r="9" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="77"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="81"/>
-    </row>
-    <row r="10" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="122"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B5:B6"/>
+  <mergeCells count="11">
+    <mergeCell ref="S5:S12"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="S5:S9"/>
+    <mergeCell ref="B10:B12"/>
     <mergeCell ref="B1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="J3:Q3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC2EBB7-5669-4BC7-8C4D-6FF94FADDE33}">
-  <dimension ref="A1:S10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="21" style="13" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="58" style="30" customWidth="1"/>
-    <col min="19" max="19" width="17.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.44140625" style="13"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="82" t="str">
-        <f>Reservas!D8</f>
-        <v>Reserva-0001</v>
-      </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="83"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="72"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="74"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="86" t="s">
-        <v>29</v>
-      </c>
-      <c r="S3" s="88" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="L4" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="O4" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="P4" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q4" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="R4" s="87"/>
-      <c r="S4" s="89"/>
-    </row>
-    <row r="5" spans="1:19" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="77" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="35">
-        <v>32</v>
-      </c>
-      <c r="F5" s="35">
-        <v>32</v>
-      </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35" t="str">
-        <f>_xlfn.CONCAT(C5,$B$5)</f>
-        <v>identificadorAgenda</v>
-      </c>
-      <c r="K5" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="L5" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="M5" s="35">
-        <v>32</v>
-      </c>
-      <c r="N5" s="35">
-        <v>32</v>
-      </c>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="46" t="str">
-        <f>_xlfn.CONCAT("Atributo que contiene la informacion del identificador de un ",B5,"  en el contexto de ",A5,".")</f>
-        <v>Atributo que contiene la informacion del identificador de un Agenda  en el contexto de Conjuntos Residenciales.</v>
-      </c>
-      <c r="S5" s="91" t="str">
-        <f>B7</f>
-        <v>Turno</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="77"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="35">
-        <v>1</v>
-      </c>
-      <c r="F6" s="35">
-        <v>50</v>
-      </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35" t="str">
-        <f>_xlfn.CONCAT(C6,$B$5)</f>
-        <v>nombreAgenda</v>
-      </c>
-      <c r="K6" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="L6" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="M6" s="35">
-        <v>1</v>
-      </c>
-      <c r="N6" s="35">
-        <v>50</v>
-      </c>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="46" t="str">
-        <f>_xlfn.CONCAT("Atributo que contiene la información del nombre de un ",B5," en el contexto de ",A5," asociado al residente con el identificador' ",J6,"'.")</f>
-        <v>Atributo que contiene la información del nombre de un Agenda en el contexto de Conjuntos Residenciales asociado al residente con el identificador' nombreAgenda'.</v>
-      </c>
-      <c r="S6" s="92"/>
-    </row>
-    <row r="7" spans="1:19" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="77"/>
-      <c r="B7" s="79" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="37">
-        <v>32</v>
-      </c>
-      <c r="F7" s="37">
-        <v>32</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37" t="str">
-        <f>_xlfn.CONCAT(C5,$B$7)</f>
-        <v>identificadorTurno</v>
-      </c>
-      <c r="K7" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="M7" s="37">
-        <v>32</v>
-      </c>
-      <c r="N7" s="37">
-        <v>32</v>
-      </c>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="47" t="str">
-        <f>_xlfn.CONCAT("Atributo que contiene la informacion del identificador de un ",B7,"  en el contexto de ",A5,".")</f>
-        <v>Atributo que contiene la informacion del identificador de un Turno  en el contexto de Conjuntos Residenciales.</v>
-      </c>
-      <c r="S7" s="92"/>
-    </row>
-    <row r="8" spans="1:19" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="77"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="37">
-        <v>1</v>
-      </c>
-      <c r="F8" s="37">
-        <v>50</v>
-      </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37" t="str">
-        <f>_xlfn.CONCAT(C6,$B$7)</f>
-        <v>nombreTurno</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="M8" s="37">
-        <v>1</v>
-      </c>
-      <c r="N8" s="37">
-        <v>50</v>
-      </c>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="47" t="str">
-        <f>_xlfn.CONCAT("Atributo que contiene la información del nombre de un ",B7," en el contexto de ",A5," asociado a la reserva con el identificador' ",J8,"'.")</f>
-        <v>Atributo que contiene la información del nombre de un Turno en el contexto de Conjuntos Residenciales asociado a la reserva con el identificador' nombreTurno'.</v>
-      </c>
-      <c r="S8" s="92"/>
-    </row>
-    <row r="9" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="77"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="93"/>
-    </row>
-    <row r="10" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A5:A12"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="S5:S9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B1:S1"/>
-    <mergeCell ref="A2:S2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="J3:Q3"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
